--- a/content/EUANGELION-IMAGE-LIBRARY.xlsx
+++ b/content/EUANGELION-IMAGE-LIBRARY.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -58,6 +58,12 @@
       <b val="1"/>
       <color rgb="00C19A6B"/>
       <sz val="12"/>
+    </font>
+    <font>
+      <name val="Inter"/>
+      <color rgb="002E86AB"/>
+      <sz val="10"/>
+      <u val="single"/>
     </font>
   </fonts>
   <fills count="4">
@@ -106,7 +112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -124,6 +130,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -490,7 +499,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J212"/>
+  <dimension ref="A1:N212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -509,6 +518,10 @@
     <col width="16" customWidth="1" min="8" max="8"/>
     <col width="10" customWidth="1" min="9" max="9"/>
     <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="35" customWidth="1" min="11" max="11"/>
+    <col width="25" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="55" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -560,6 +573,26 @@
       <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Status</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Reference Painting</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Artist</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Reference URL</t>
         </is>
       </c>
     </row>
@@ -578,6 +611,10 @@
       <c r="H2" s="2" t="n"/>
       <c r="I2" s="2" t="n"/>
       <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="2" t="n"/>
+      <c r="N2" s="2" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
@@ -624,6 +661,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K3" s="4" t="inlineStr">
+        <is>
+          <t>The Creation of Light</t>
+        </is>
+      </c>
+      <c r="L3" s="4" t="inlineStr">
+        <is>
+          <t>Gustave Doré</t>
+        </is>
+      </c>
+      <c r="M3" s="4" t="inlineStr">
+        <is>
+          <t>1866</t>
+        </is>
+      </c>
+      <c r="N3" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/File:Création_de_la_Lumière.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
@@ -670,6 +727,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>The Flight into Egypt</t>
+        </is>
+      </c>
+      <c r="L4" s="4" t="inlineStr">
+        <is>
+          <t>Adam Elsheimer</t>
+        </is>
+      </c>
+      <c r="M4" s="4" t="inlineStr">
+        <is>
+          <t>1609</t>
+        </is>
+      </c>
+      <c r="N4" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/The_Flight_into_Egypt_(Elsheimer)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
@@ -716,6 +793,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K5" s="4" t="inlineStr">
+        <is>
+          <t>Sunrise with Sea Monsters</t>
+        </is>
+      </c>
+      <c r="L5" s="4" t="inlineStr">
+        <is>
+          <t>J.M.W. Turner</t>
+        </is>
+      </c>
+      <c r="M5" s="4" t="inlineStr">
+        <is>
+          <t>c.1845</t>
+        </is>
+      </c>
+      <c r="N5" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Sunrise_with_Sea_Monsters</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
@@ -762,6 +859,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K6" s="4" t="inlineStr">
+        <is>
+          <t>Evening Landscape with an Aqueduct</t>
+        </is>
+      </c>
+      <c r="L6" s="4" t="inlineStr">
+        <is>
+          <t>Théodore Géricault</t>
+        </is>
+      </c>
+      <c r="M6" s="4" t="inlineStr">
+        <is>
+          <t>1818</t>
+        </is>
+      </c>
+      <c r="N6" s="9" t="inlineStr">
+        <is>
+          <t>https://commons.wikimedia.org/wiki/File:Théodore_Géricault_-_Evening_Landscape_with_an_Aqueduct_-_Google_Art_Project.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
@@ -808,6 +925,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K7" s="4" t="inlineStr">
+        <is>
+          <t>The Solitary Tree</t>
+        </is>
+      </c>
+      <c r="L7" s="4" t="inlineStr">
+        <is>
+          <t>Caspar David Friedrich</t>
+        </is>
+      </c>
+      <c r="M7" s="4" t="inlineStr">
+        <is>
+          <t>1822</t>
+        </is>
+      </c>
+      <c r="N7" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/The_Lonely_Tree</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
@@ -854,6 +991,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Olive Trees with the Alpilles in the Background</t>
+        </is>
+      </c>
+      <c r="L8" s="4" t="inlineStr">
+        <is>
+          <t>Vincent van Gogh</t>
+        </is>
+      </c>
+      <c r="M8" s="4" t="inlineStr">
+        <is>
+          <t>1889</t>
+        </is>
+      </c>
+      <c r="N8" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Olive_Trees_(Van_Gogh_series)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
@@ -900,6 +1057,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K9" s="4" t="inlineStr">
+        <is>
+          <t>The Parable of the Good Samaritan (vineyard detail)</t>
+        </is>
+      </c>
+      <c r="L9" s="4" t="inlineStr">
+        <is>
+          <t>Pieter Bruegel the Elder</t>
+        </is>
+      </c>
+      <c r="M9" s="4" t="inlineStr">
+        <is>
+          <t>1567</t>
+        </is>
+      </c>
+      <c r="N9" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/The_Seasons_(Bruegel)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
@@ -946,6 +1123,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K10" s="4" t="inlineStr">
+        <is>
+          <t>The Harvesters</t>
+        </is>
+      </c>
+      <c r="L10" s="4" t="inlineStr">
+        <is>
+          <t>Pieter Bruegel the Elder</t>
+        </is>
+      </c>
+      <c r="M10" s="4" t="inlineStr">
+        <is>
+          <t>1565</t>
+        </is>
+      </c>
+      <c r="N10" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/The_Harvesters_(Bruegel)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
@@ -992,6 +1189,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K11" s="4" t="inlineStr">
+        <is>
+          <t>The Parable of the Sower</t>
+        </is>
+      </c>
+      <c r="L11" s="4" t="inlineStr">
+        <is>
+          <t>Pieter Bruegel the Elder</t>
+        </is>
+      </c>
+      <c r="M11" s="4" t="inlineStr">
+        <is>
+          <t>1557</t>
+        </is>
+      </c>
+      <c r="N11" s="9" t="inlineStr">
+        <is>
+          <t>https://commons.wikimedia.org/wiki/File:Pieter_Bruegel_the_Elder_-_The_Parable_of_the_Sower_-_WGA03374.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
@@ -1038,6 +1255,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K12" s="4" t="inlineStr">
+        <is>
+          <t>The Barren Fig Tree (Bible illustration)</t>
+        </is>
+      </c>
+      <c r="L12" s="4" t="inlineStr">
+        <is>
+          <t>Gustave Doré</t>
+        </is>
+      </c>
+      <c r="M12" s="4" t="inlineStr">
+        <is>
+          <t>1866</t>
+        </is>
+      </c>
+      <c r="N12" s="9" t="inlineStr">
+        <is>
+          <t>https://commons.wikimedia.org/wiki/File:Gustave_Doré_-_The_Holy_Bible_-_Plate_CXXXVIII.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
@@ -1084,6 +1321,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K13" s="4" t="inlineStr">
+        <is>
+          <t>Ophelia</t>
+        </is>
+      </c>
+      <c r="L13" s="4" t="inlineStr">
+        <is>
+          <t>John Everett Millais</t>
+        </is>
+      </c>
+      <c r="M13" s="4" t="inlineStr">
+        <is>
+          <t>1851–52</t>
+        </is>
+      </c>
+      <c r="N13" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Ophelia_(painting)</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
@@ -1130,6 +1387,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K14" s="4" t="inlineStr">
+        <is>
+          <t>Wanderer above the Sea of Fog</t>
+        </is>
+      </c>
+      <c r="L14" s="4" t="inlineStr">
+        <is>
+          <t>Caspar David Friedrich</t>
+        </is>
+      </c>
+      <c r="M14" s="4" t="inlineStr">
+        <is>
+          <t>1818</t>
+        </is>
+      </c>
+      <c r="N14" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Wanderer_above_the_Sea_of_Fog</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
@@ -1176,6 +1453,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K15" s="4" t="inlineStr">
+        <is>
+          <t>Christ in the Wilderness</t>
+        </is>
+      </c>
+      <c r="L15" s="4" t="inlineStr">
+        <is>
+          <t>Ivan Kramskoi</t>
+        </is>
+      </c>
+      <c r="M15" s="4" t="inlineStr">
+        <is>
+          <t>1872</t>
+        </is>
+      </c>
+      <c r="N15" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Christ_in_the_Wilderness</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
@@ -1222,6 +1519,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K16" s="4" t="inlineStr">
+        <is>
+          <t>Hagar and the Angel in the Desert</t>
+        </is>
+      </c>
+      <c r="L16" s="4" t="inlineStr">
+        <is>
+          <t>Giovanni Lanfranco</t>
+        </is>
+      </c>
+      <c r="M16" s="4" t="inlineStr">
+        <is>
+          <t>c.1616</t>
+        </is>
+      </c>
+      <c r="N16" s="9" t="inlineStr">
+        <is>
+          <t>https://commons.wikimedia.org/wiki/File:Giovanni_Lanfranco_-_Hagar_in_the_Wilderness_-_WGA12454.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
@@ -1268,6 +1585,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K17" s="4" t="inlineStr">
+        <is>
+          <t>The Great Wave off Kanagawa (cf. Storm on Sea of Galilee)</t>
+        </is>
+      </c>
+      <c r="L17" s="4" t="inlineStr">
+        <is>
+          <t>Rembrandt</t>
+        </is>
+      </c>
+      <c r="M17" s="4" t="inlineStr">
+        <is>
+          <t>1633</t>
+        </is>
+      </c>
+      <c r="N17" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/The_Storm_on_the_Sea_of_Galilee</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
@@ -1314,6 +1651,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K18" s="4" t="inlineStr">
+        <is>
+          <t>The Monk by the Sea</t>
+        </is>
+      </c>
+      <c r="L18" s="4" t="inlineStr">
+        <is>
+          <t>Caspar David Friedrich</t>
+        </is>
+      </c>
+      <c r="M18" s="4" t="inlineStr">
+        <is>
+          <t>1808–10</t>
+        </is>
+      </c>
+      <c r="N18" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/The_Monk_by_the_Sea</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
@@ -1360,6 +1717,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K19" s="4" t="inlineStr">
+        <is>
+          <t>A River Landscape with Figures and Cattle</t>
+        </is>
+      </c>
+      <c r="L19" s="4" t="inlineStr">
+        <is>
+          <t>Aelbert Cuyp</t>
+        </is>
+      </c>
+      <c r="M19" s="4" t="inlineStr">
+        <is>
+          <t>c.1660</t>
+        </is>
+      </c>
+      <c r="N19" s="9" t="inlineStr">
+        <is>
+          <t>https://commons.wikimedia.org/wiki/File:Aelbert_Cuyp_-_River_Landscape_with_Horseman_and_Peasants.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
@@ -1406,6 +1783,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K20" s="4" t="inlineStr">
+        <is>
+          <t>The Deluge</t>
+        </is>
+      </c>
+      <c r="L20" s="4" t="inlineStr">
+        <is>
+          <t>John Martin</t>
+        </is>
+      </c>
+      <c r="M20" s="4" t="inlineStr">
+        <is>
+          <t>1834</t>
+        </is>
+      </c>
+      <c r="N20" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/The_Deluge_(Martin)</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
@@ -1452,6 +1849,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K21" s="4" t="inlineStr">
+        <is>
+          <t>Rocky Landscape</t>
+        </is>
+      </c>
+      <c r="L21" s="4" t="inlineStr">
+        <is>
+          <t>Caspar David Friedrich</t>
+        </is>
+      </c>
+      <c r="M21" s="4" t="inlineStr">
+        <is>
+          <t>c.1823</t>
+        </is>
+      </c>
+      <c r="N21" s="9" t="inlineStr">
+        <is>
+          <t>https://commons.wikimedia.org/wiki/File:Caspar_David_Friedrich_-_Rocky_landscape_in_the_Elbe_Sandstone_Mountains_-_Google_Art_Project.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
@@ -1498,6 +1915,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K22" s="4" t="inlineStr">
+        <is>
+          <t>Moses Before the Burning Bush</t>
+        </is>
+      </c>
+      <c r="L22" s="4" t="inlineStr">
+        <is>
+          <t>Domenico Fetti</t>
+        </is>
+      </c>
+      <c r="M22" s="4" t="inlineStr">
+        <is>
+          <t>c.1614</t>
+        </is>
+      </c>
+      <c r="N22" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Moses_and_the_Burning_Bush#/media/File:Feti,_Domenico_-_Moses_before_the_Burning_Bush.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
@@ -1544,6 +1981,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K23" s="4" t="inlineStr">
+        <is>
+          <t>Israelites Guided by the Pillar of Fire</t>
+        </is>
+      </c>
+      <c r="L23" s="4" t="inlineStr">
+        <is>
+          <t>William West</t>
+        </is>
+      </c>
+      <c r="M23" s="4" t="inlineStr">
+        <is>
+          <t>1845</t>
+        </is>
+      </c>
+      <c r="N23" s="9" t="inlineStr">
+        <is>
+          <t>https://commons.wikimedia.org/wiki/File:Israelites_guided_by_the_Pillar_of_Fire_-_William_West.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
@@ -1590,6 +2047,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K24" s="4" t="inlineStr">
+        <is>
+          <t>Landscape with Noah's Thankoffering</t>
+        </is>
+      </c>
+      <c r="L24" s="4" t="inlineStr">
+        <is>
+          <t>Joseph Anton Koch</t>
+        </is>
+      </c>
+      <c r="M24" s="4" t="inlineStr">
+        <is>
+          <t>c.1803</t>
+        </is>
+      </c>
+      <c r="N24" s="9" t="inlineStr">
+        <is>
+          <t>https://commons.wikimedia.org/wiki/File:Joseph_Anton_Koch_006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
@@ -1636,6 +2113,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K25" s="4" t="inlineStr">
+        <is>
+          <t>Descent of the Holy Spirit (dove)</t>
+        </is>
+      </c>
+      <c r="L25" s="4" t="inlineStr">
+        <is>
+          <t>Titian</t>
+        </is>
+      </c>
+      <c r="M25" s="4" t="inlineStr">
+        <is>
+          <t>c.1545</t>
+        </is>
+      </c>
+      <c r="N25" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/File:Tizian_041.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
@@ -1682,6 +2179,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K26" s="4" t="inlineStr">
+        <is>
+          <t>Agnus Dei</t>
+        </is>
+      </c>
+      <c r="L26" s="4" t="inlineStr">
+        <is>
+          <t>Francisco de Zurbarán</t>
+        </is>
+      </c>
+      <c r="M26" s="4" t="inlineStr">
+        <is>
+          <t>1635–40</t>
+        </is>
+      </c>
+      <c r="N26" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Agnus_Dei_(Zurbarán)</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
@@ -1728,6 +2245,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K27" s="4" t="inlineStr">
+        <is>
+          <t>Daniel in the Lions' Den (lion study)</t>
+        </is>
+      </c>
+      <c r="L27" s="4" t="inlineStr">
+        <is>
+          <t>Peter Paul Rubens</t>
+        </is>
+      </c>
+      <c r="M27" s="4" t="inlineStr">
+        <is>
+          <t>c.1615</t>
+        </is>
+      </c>
+      <c r="N27" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Daniel_in_the_Lions%27_Den_(Rubens)</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
@@ -1772,6 +2309,26 @@
       <c r="J28" s="5" t="inlineStr">
         <is>
           <t>To Do</t>
+        </is>
+      </c>
+      <c r="K28" s="4" t="inlineStr">
+        <is>
+          <t>Ganymede (eagle)</t>
+        </is>
+      </c>
+      <c r="L28" s="4" t="inlineStr">
+        <is>
+          <t>Rubens</t>
+        </is>
+      </c>
+      <c r="M28" s="4" t="inlineStr">
+        <is>
+          <t>1611–12</t>
+        </is>
+      </c>
+      <c r="N28" s="9" t="inlineStr">
+        <is>
+          <t>https://commons.wikimedia.org/wiki/File:Peter_Paul_Rubens_-_The_Abduction_of_Ganymede_-_WGA20282.jpg</t>
         </is>
       </c>
     </row>
@@ -1790,6 +2347,10 @@
       <c r="H29" s="2" t="n"/>
       <c r="I29" s="2" t="n"/>
       <c r="J29" s="2" t="n"/>
+      <c r="K29" s="2" t="n"/>
+      <c r="L29" s="2" t="n"/>
+      <c r="M29" s="2" t="n"/>
+      <c r="N29" s="2" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
@@ -1836,6 +2397,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K30" s="4" t="inlineStr">
+        <is>
+          <t>Young Girl with a Candle</t>
+        </is>
+      </c>
+      <c r="L30" s="4" t="inlineStr">
+        <is>
+          <t>Godfried Schalcken</t>
+        </is>
+      </c>
+      <c r="M30" s="4" t="inlineStr">
+        <is>
+          <t>c.1670</t>
+        </is>
+      </c>
+      <c r="N30" s="9" t="inlineStr">
+        <is>
+          <t>https://commons.wikimedia.org/wiki/File:Godfried_Schalcken_-_Young_Girl_with_a_Candle_-_WGA20944.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
@@ -1882,6 +2463,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K31" s="4" t="inlineStr">
+        <is>
+          <t>The Magdalen with the Smoking Flame</t>
+        </is>
+      </c>
+      <c r="L31" s="4" t="inlineStr">
+        <is>
+          <t>Georges de La Tour</t>
+        </is>
+      </c>
+      <c r="M31" s="4" t="inlineStr">
+        <is>
+          <t>c.1640</t>
+        </is>
+      </c>
+      <c r="N31" s="9" t="inlineStr">
+        <is>
+          <t>https://commons.wikimedia.org/wiki/File:Georges_de_La_Tour_-_The_Magdalen_with_the_Smoking_Flame_-_Google_Art_Project.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
@@ -1928,6 +2529,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K32" s="4" t="inlineStr">
+        <is>
+          <t>Philosopher in Meditation</t>
+        </is>
+      </c>
+      <c r="L32" s="4" t="inlineStr">
+        <is>
+          <t>Rembrandt van Rijn</t>
+        </is>
+      </c>
+      <c r="M32" s="4" t="inlineStr">
+        <is>
+          <t>1632</t>
+        </is>
+      </c>
+      <c r="N32" s="9" t="inlineStr">
+        <is>
+          <t>https://commons.wikimedia.org/wiki/File:Rembrandt_-_The_Philosopher_in_Meditation.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
@@ -1974,6 +2595,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K33" s="4" t="inlineStr">
+        <is>
+          <t>Buttermere Lake, Cumberland, a Shower</t>
+        </is>
+      </c>
+      <c r="L33" s="4" t="inlineStr">
+        <is>
+          <t>J.M.W. Turner</t>
+        </is>
+      </c>
+      <c r="M33" s="4" t="inlineStr">
+        <is>
+          <t>1798</t>
+        </is>
+      </c>
+      <c r="N33" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Buttermere_Lake,_with_Part_of_Cromackwater,_Cumberland,_a_Shower</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
@@ -2020,6 +2661,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K34" s="4" t="inlineStr">
+        <is>
+          <t>David with the Head of Goliath</t>
+        </is>
+      </c>
+      <c r="L34" s="4" t="inlineStr">
+        <is>
+          <t>Caravaggio</t>
+        </is>
+      </c>
+      <c r="M34" s="4" t="inlineStr">
+        <is>
+          <t>c.1610</t>
+        </is>
+      </c>
+      <c r="N34" s="9" t="inlineStr">
+        <is>
+          <t>https://commons.wikimedia.org/wiki/File:David_with_the_Head_of_Goliath-Caravaggio_(1610).jpg</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
@@ -2066,6 +2727,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K35" s="4" t="inlineStr">
+        <is>
+          <t>Christ before the High Priest</t>
+        </is>
+      </c>
+      <c r="L35" s="4" t="inlineStr">
+        <is>
+          <t>Gerard van Honthorst</t>
+        </is>
+      </c>
+      <c r="M35" s="4" t="inlineStr">
+        <is>
+          <t>c.1617</t>
+        </is>
+      </c>
+      <c r="N35" s="9" t="inlineStr">
+        <is>
+          <t>https://commons.wikimedia.org/wiki/File:Gerard_van_Honthorst_-_Christ_before_the_High_Priest_-_WGA11650.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
@@ -2112,6 +2793,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K36" s="4" t="inlineStr">
+        <is>
+          <t>Morning in the Riesengebirge</t>
+        </is>
+      </c>
+      <c r="L36" s="4" t="inlineStr">
+        <is>
+          <t>Caspar David Friedrich</t>
+        </is>
+      </c>
+      <c r="M36" s="4" t="inlineStr">
+        <is>
+          <t>1810–11</t>
+        </is>
+      </c>
+      <c r="N36" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Morning_on_the_Riesengebirge</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="n">
@@ -2158,6 +2859,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K37" s="4" t="inlineStr">
+        <is>
+          <t>Moonlit Landscape with River</t>
+        </is>
+      </c>
+      <c r="L37" s="4" t="inlineStr">
+        <is>
+          <t>Aert van der Neer</t>
+        </is>
+      </c>
+      <c r="M37" s="4" t="inlineStr">
+        <is>
+          <t>1647</t>
+        </is>
+      </c>
+      <c r="N37" s="9" t="inlineStr">
+        <is>
+          <t>https://commons.wikimedia.org/wiki/File:Moonlit_Landscape_with_a_View_of_the_New_Amstel_River_and_Castle_Kostverloren_by_Aert_van_der_Neer.JPG</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
@@ -2204,6 +2925,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K38" s="4" t="inlineStr">
+        <is>
+          <t>Bell Rock Lighthouse</t>
+        </is>
+      </c>
+      <c r="L38" s="4" t="inlineStr">
+        <is>
+          <t>J.M.W. Turner</t>
+        </is>
+      </c>
+      <c r="M38" s="4" t="inlineStr">
+        <is>
+          <t>1819</t>
+        </is>
+      </c>
+      <c r="N38" s="9" t="inlineStr">
+        <is>
+          <t>https://commons.wikimedia.org/wiki/File:Joseph_Mallord_William_Turner_-_Bell_Rock_Lighthouse_-_Google_Art_Project.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="n">
@@ -2250,6 +2991,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K39" s="4" t="inlineStr">
+        <is>
+          <t>Campfire</t>
+        </is>
+      </c>
+      <c r="L39" s="4" t="inlineStr">
+        <is>
+          <t>Albert Bierstadt</t>
+        </is>
+      </c>
+      <c r="M39" s="4" t="inlineStr">
+        <is>
+          <t>1863</t>
+        </is>
+      </c>
+      <c r="N39" s="9" t="inlineStr">
+        <is>
+          <t>https://commons.wikimedia.org/wiki/File:Campfire_(Albert_Bierstadt),_1863.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="n">
@@ -2296,6 +3057,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K40" s="4" t="inlineStr">
+        <is>
+          <t>The Flight into Egypt (starfield)</t>
+        </is>
+      </c>
+      <c r="L40" s="4" t="inlineStr">
+        <is>
+          <t>Adam Elsheimer</t>
+        </is>
+      </c>
+      <c r="M40" s="4" t="inlineStr">
+        <is>
+          <t>1609</t>
+        </is>
+      </c>
+      <c r="N40" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/The_Flight_into_Egypt_(Elsheimer)</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="n">
@@ -2340,6 +3121,26 @@
       <c r="J41" s="5" t="inlineStr">
         <is>
           <t>To Do</t>
+        </is>
+      </c>
+      <c r="K41" s="4" t="inlineStr">
+        <is>
+          <t>Astronomers Studying an Eclipse</t>
+        </is>
+      </c>
+      <c r="L41" s="4" t="inlineStr">
+        <is>
+          <t>Antoine Caron</t>
+        </is>
+      </c>
+      <c r="M41" s="4" t="inlineStr">
+        <is>
+          <t>1571</t>
+        </is>
+      </c>
+      <c r="N41" s="9" t="inlineStr">
+        <is>
+          <t>https://commons.wikimedia.org/wiki/File:Antoine_Caron_Astronomers_Studying_an_Eclipse.jpg</t>
         </is>
       </c>
     </row>
@@ -2358,6 +3159,10 @@
       <c r="H42" s="2" t="n"/>
       <c r="I42" s="2" t="n"/>
       <c r="J42" s="2" t="n"/>
+      <c r="K42" s="2" t="n"/>
+      <c r="L42" s="2" t="n"/>
+      <c r="M42" s="2" t="n"/>
+      <c r="N42" s="2" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="3" t="n">
@@ -2404,6 +3209,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K43" s="4" t="inlineStr">
+        <is>
+          <t>Isaiah's Scroll (Dead Sea Scrolls photo)</t>
+        </is>
+      </c>
+      <c r="L43" s="4" t="inlineStr">
+        <is>
+          <t>Historical artifact</t>
+        </is>
+      </c>
+      <c r="M43" s="4" t="inlineStr">
+        <is>
+          <t>c.150 BCE</t>
+        </is>
+      </c>
+      <c r="N43" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Isaiah_scroll</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="n">
@@ -2450,6 +3275,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K44" s="4" t="inlineStr">
+        <is>
+          <t>The Seven Seals (Revelation)</t>
+        </is>
+      </c>
+      <c r="L44" s="4" t="inlineStr">
+        <is>
+          <t>Albrecht Dürer</t>
+        </is>
+      </c>
+      <c r="M44" s="4" t="inlineStr">
+        <is>
+          <t>1498</t>
+        </is>
+      </c>
+      <c r="N44" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/File:Dürer_Revelation_Four_Riders.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="n">
@@ -2496,6 +3341,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K45" s="4" t="inlineStr">
+        <is>
+          <t>Still Life with Bible</t>
+        </is>
+      </c>
+      <c r="L45" s="4" t="inlineStr">
+        <is>
+          <t>Vincent van Gogh</t>
+        </is>
+      </c>
+      <c r="M45" s="4" t="inlineStr">
+        <is>
+          <t>1885</t>
+        </is>
+      </c>
+      <c r="N45" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Still_Life_with_Bible</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="n">
@@ -2542,6 +3407,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K46" s="4" t="inlineStr">
+        <is>
+          <t>Hebrew Torah Scroll (manuscript)</t>
+        </is>
+      </c>
+      <c r="L46" s="4" t="inlineStr">
+        <is>
+          <t>Historical artifact</t>
+        </is>
+      </c>
+      <c r="M46" s="4" t="inlineStr">
+        <is>
+          <t>Medieval</t>
+        </is>
+      </c>
+      <c r="N46" s="9" t="inlineStr">
+        <is>
+          <t>https://commons.wikimedia.org/wiki/File:Torah_and_jad.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="n">
@@ -2588,6 +3473,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K47" s="4" t="inlineStr">
+        <is>
+          <t>Codex Sinaiticus</t>
+        </is>
+      </c>
+      <c r="L47" s="4" t="inlineStr">
+        <is>
+          <t>Historical artifact</t>
+        </is>
+      </c>
+      <c r="M47" s="4" t="inlineStr">
+        <is>
+          <t>4th century</t>
+        </is>
+      </c>
+      <c r="N47" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Codex_Sinaiticus</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="n">
@@ -2634,6 +3539,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K48" s="4" t="inlineStr">
+        <is>
+          <t>The Supper at Emmaus (bread detail)</t>
+        </is>
+      </c>
+      <c r="L48" s="4" t="inlineStr">
+        <is>
+          <t>Caravaggio</t>
+        </is>
+      </c>
+      <c r="M48" s="4" t="inlineStr">
+        <is>
+          <t>1601</t>
+        </is>
+      </c>
+      <c r="N48" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Supper_at_Emmaus_(Caravaggio,_London)</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="n">
@@ -2680,6 +3605,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K49" s="4" t="inlineStr">
+        <is>
+          <t>The Last Supper (chalice detail)</t>
+        </is>
+      </c>
+      <c r="L49" s="4" t="inlineStr">
+        <is>
+          <t>Juan de Juanes</t>
+        </is>
+      </c>
+      <c r="M49" s="4" t="inlineStr">
+        <is>
+          <t>c.1560</t>
+        </is>
+      </c>
+      <c r="N49" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/File:Juan_de_Juanes_-_The_Last_Supper_-_Google_Art_Project.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="n">
@@ -2726,6 +3671,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K50" s="4" t="inlineStr">
+        <is>
+          <t>Sacrament of the Last Supper</t>
+        </is>
+      </c>
+      <c r="L50" s="4" t="inlineStr">
+        <is>
+          <t>Salvador Dalí</t>
+        </is>
+      </c>
+      <c r="M50" s="4" t="inlineStr">
+        <is>
+          <t>1955</t>
+        </is>
+      </c>
+      <c r="N50" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/The_Sacrament_of_the_Last_Supper</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="n">
@@ -2772,6 +3737,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K51" s="4" t="inlineStr">
+        <is>
+          <t>Crucifixion</t>
+        </is>
+      </c>
+      <c r="L51" s="4" t="inlineStr">
+        <is>
+          <t>Matthias Grünewald</t>
+        </is>
+      </c>
+      <c r="M51" s="4" t="inlineStr">
+        <is>
+          <t>1512–16</t>
+        </is>
+      </c>
+      <c r="N51" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Isenheim_Altarpiece</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="n">
@@ -2818,6 +3803,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K52" s="4" t="inlineStr">
+        <is>
+          <t>Cross in the Mountains</t>
+        </is>
+      </c>
+      <c r="L52" s="4" t="inlineStr">
+        <is>
+          <t>Caspar David Friedrich</t>
+        </is>
+      </c>
+      <c r="M52" s="4" t="inlineStr">
+        <is>
+          <t>1808</t>
+        </is>
+      </c>
+      <c r="N52" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Cross_in_the_Mountains</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="n">
@@ -2864,6 +3869,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K53" s="4" t="inlineStr">
+        <is>
+          <t>Man of Sorrows (crown of thorns)</t>
+        </is>
+      </c>
+      <c r="L53" s="4" t="inlineStr">
+        <is>
+          <t>Albrecht Dürer</t>
+        </is>
+      </c>
+      <c r="M53" s="4" t="inlineStr">
+        <is>
+          <t>1493</t>
+        </is>
+      </c>
+      <c r="N53" s="9" t="inlineStr">
+        <is>
+          <t>https://commons.wikimedia.org/wiki/File:Albrecht_Dürer_-_Man_of_Sorrows_-_WGA07017.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="n">
@@ -2910,6 +3935,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K54" s="4" t="inlineStr">
+        <is>
+          <t>Christ with Crown of Thorns</t>
+        </is>
+      </c>
+      <c r="L54" s="4" t="inlineStr">
+        <is>
+          <t>Guido Reni</t>
+        </is>
+      </c>
+      <c r="M54" s="4" t="inlineStr">
+        <is>
+          <t>c.1636</t>
+        </is>
+      </c>
+      <c r="N54" s="9" t="inlineStr">
+        <is>
+          <t>https://commons.wikimedia.org/wiki/File:Guido_Reni_-_Head_of_Christ_Crowned_with_Thorns_-_WGA19289.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="n">
@@ -2956,6 +4001,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K55" s="4" t="inlineStr">
+        <is>
+          <t>Christ on the Cross (detail)</t>
+        </is>
+      </c>
+      <c r="L55" s="4" t="inlineStr">
+        <is>
+          <t>Diego Velázquez</t>
+        </is>
+      </c>
+      <c r="M55" s="4" t="inlineStr">
+        <is>
+          <t>1632</t>
+        </is>
+      </c>
+      <c r="N55" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Christ_Crucified_(Velázquez)</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="n">
@@ -3002,6 +4067,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K56" s="4" t="inlineStr">
+        <is>
+          <t>The Holy Women at the Tomb</t>
+        </is>
+      </c>
+      <c r="L56" s="4" t="inlineStr">
+        <is>
+          <t>Annibale Carracci</t>
+        </is>
+      </c>
+      <c r="M56" s="4" t="inlineStr">
+        <is>
+          <t>c.1590</t>
+        </is>
+      </c>
+      <c r="N56" s="9" t="inlineStr">
+        <is>
+          <t>https://commons.wikimedia.org/wiki/File:Annibale_Carracci_-_The_Three_Marys_at_the_Tomb_-_WGA04425.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="n">
@@ -3048,6 +4133,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K57" s="4" t="inlineStr">
+        <is>
+          <t>Noli Me Tangere (burial cloth)</t>
+        </is>
+      </c>
+      <c r="L57" s="4" t="inlineStr">
+        <is>
+          <t>Fra Angelico</t>
+        </is>
+      </c>
+      <c r="M57" s="4" t="inlineStr">
+        <is>
+          <t>c.1440</t>
+        </is>
+      </c>
+      <c r="N57" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Noli_me_tangere_(Fra_Angelico)</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="n">
@@ -3094,6 +4199,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K58" s="4" t="inlineStr">
+        <is>
+          <t>The Good Shepherd</t>
+        </is>
+      </c>
+      <c r="L58" s="4" t="inlineStr">
+        <is>
+          <t>Philippe de Champaigne</t>
+        </is>
+      </c>
+      <c r="M58" s="4" t="inlineStr">
+        <is>
+          <t>c.1650</t>
+        </is>
+      </c>
+      <c r="N58" s="9" t="inlineStr">
+        <is>
+          <t>https://commons.wikimedia.org/wiki/File:Philippe_de_Champaigne_-_The_Good_Shepherd_-_WGA04715.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="n">
@@ -3140,6 +4265,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K59" s="4" t="inlineStr">
+        <is>
+          <t>Still Life (earthen vessel)</t>
+        </is>
+      </c>
+      <c r="L59" s="4" t="inlineStr">
+        <is>
+          <t>Jean-Baptiste-Siméon Chardin</t>
+        </is>
+      </c>
+      <c r="M59" s="4" t="inlineStr">
+        <is>
+          <t>c.1730</t>
+        </is>
+      </c>
+      <c r="N59" s="9" t="inlineStr">
+        <is>
+          <t>https://commons.wikimedia.org/wiki/File:Jean_Siméon_Chardin_-_Still_Life_-_The_Kitchen_Table_-_WGA04757.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="n">
@@ -3186,6 +4331,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K60" s="4" t="inlineStr">
+        <is>
+          <t>God as Architect / Geometer</t>
+        </is>
+      </c>
+      <c r="L60" s="4" t="inlineStr">
+        <is>
+          <t>Bible Moralisée illumination</t>
+        </is>
+      </c>
+      <c r="M60" s="4" t="inlineStr">
+        <is>
+          <t>c.1220</t>
+        </is>
+      </c>
+      <c r="N60" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/God_the_Geometer</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="n">
@@ -3232,6 +4397,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K61" s="4" t="inlineStr">
+        <is>
+          <t>Samuel Anointing David</t>
+        </is>
+      </c>
+      <c r="L61" s="4" t="inlineStr">
+        <is>
+          <t>Dura Europos Synagogue</t>
+        </is>
+      </c>
+      <c r="M61" s="4" t="inlineStr">
+        <is>
+          <t>c.244 CE</t>
+        </is>
+      </c>
+      <c r="N61" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Dura-Europos_synagogue</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="3" t="n">
@@ -3278,6 +4463,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K62" s="4" t="inlineStr">
+        <is>
+          <t>The Angel Standing in the Sun (incense)</t>
+        </is>
+      </c>
+      <c r="L62" s="4" t="inlineStr">
+        <is>
+          <t>J.M.W. Turner</t>
+        </is>
+      </c>
+      <c r="M62" s="4" t="inlineStr">
+        <is>
+          <t>1846</t>
+        </is>
+      </c>
+      <c r="N62" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/The_Angel_Standing_in_the_Sun</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="n">
@@ -3324,6 +4529,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K63" s="4" t="inlineStr">
+        <is>
+          <t>Menorah from Arch of Titus</t>
+        </is>
+      </c>
+      <c r="L63" s="4" t="inlineStr">
+        <is>
+          <t>Historical relief</t>
+        </is>
+      </c>
+      <c r="M63" s="4" t="inlineStr">
+        <is>
+          <t>c.82 CE</t>
+        </is>
+      </c>
+      <c r="N63" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Menorah_(Temple)</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="3" t="n">
@@ -3370,6 +4595,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K64" s="4" t="inlineStr">
+        <is>
+          <t>Shofar (Jewish ceremony painting)</t>
+        </is>
+      </c>
+      <c r="L64" s="4" t="inlineStr">
+        <is>
+          <t>Marc Chagall</t>
+        </is>
+      </c>
+      <c r="M64" s="4" t="inlineStr">
+        <is>
+          <t>1912–31</t>
+        </is>
+      </c>
+      <c r="N64" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Solitude_(Chagall)</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="3" t="n">
@@ -3416,6 +4661,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K65" s="4" t="inlineStr">
+        <is>
+          <t>Sacrifice of Isaac (altar)</t>
+        </is>
+      </c>
+      <c r="L65" s="4" t="inlineStr">
+        <is>
+          <t>Caravaggio</t>
+        </is>
+      </c>
+      <c r="M65" s="4" t="inlineStr">
+        <is>
+          <t>c.1603</t>
+        </is>
+      </c>
+      <c r="N65" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Sacrifice_of_Isaac_(Caravaggio)</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="3" t="n">
@@ -3462,6 +4727,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K66" s="4" t="inlineStr">
+        <is>
+          <t>Baptism of Christ</t>
+        </is>
+      </c>
+      <c r="L66" s="4" t="inlineStr">
+        <is>
+          <t>Andrea del Verrocchio &amp; Leonardo</t>
+        </is>
+      </c>
+      <c r="M66" s="4" t="inlineStr">
+        <is>
+          <t>1472–75</t>
+        </is>
+      </c>
+      <c r="N66" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Baptism_of_Christ_(Verrocchio_and_Leonardo)</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="3" t="n">
@@ -3508,6 +4793,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K67" s="4" t="inlineStr">
+        <is>
+          <t>Christ Washing the Feet of the Disciples</t>
+        </is>
+      </c>
+      <c r="L67" s="4" t="inlineStr">
+        <is>
+          <t>Tintoretto</t>
+        </is>
+      </c>
+      <c r="M67" s="4" t="inlineStr">
+        <is>
+          <t>c.1556</t>
+        </is>
+      </c>
+      <c r="N67" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Christ_Washing_the_Feet_of_the_Disciples_(Tintoretto)</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="3" t="n">
@@ -3554,6 +4859,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K68" s="4" t="inlineStr">
+        <is>
+          <t>Job on the Dunghill</t>
+        </is>
+      </c>
+      <c r="L68" s="4" t="inlineStr">
+        <is>
+          <t>Gonzalo Pérez</t>
+        </is>
+      </c>
+      <c r="M68" s="4" t="inlineStr">
+        <is>
+          <t>c.1440</t>
+        </is>
+      </c>
+      <c r="N68" s="9" t="inlineStr">
+        <is>
+          <t>https://commons.wikimedia.org/wiki/File:Job_on_the_Dunghill.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="3" t="n">
@@ -3600,6 +4925,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K69" s="4" t="inlineStr">
+        <is>
+          <t>The Goldsmith</t>
+        </is>
+      </c>
+      <c r="L69" s="4" t="inlineStr">
+        <is>
+          <t>Petrus Christus</t>
+        </is>
+      </c>
+      <c r="M69" s="4" t="inlineStr">
+        <is>
+          <t>1449</t>
+        </is>
+      </c>
+      <c r="N69" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/A_Goldsmith_in_his_Shop</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="n">
@@ -3646,6 +4991,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K70" s="4" t="inlineStr">
+        <is>
+          <t>Saint Paul (armor detail)</t>
+        </is>
+      </c>
+      <c r="L70" s="4" t="inlineStr">
+        <is>
+          <t>Rembrandt van Rijn</t>
+        </is>
+      </c>
+      <c r="M70" s="4" t="inlineStr">
+        <is>
+          <t>1627</t>
+        </is>
+      </c>
+      <c r="N70" s="9" t="inlineStr">
+        <is>
+          <t>https://commons.wikimedia.org/wiki/File:Rembrandt_-_Apostle_Paul_-_WGA19116.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="3" t="n">
@@ -3692,6 +5057,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K71" s="4" t="inlineStr">
+        <is>
+          <t>Archangel Michael (with sword)</t>
+        </is>
+      </c>
+      <c r="L71" s="4" t="inlineStr">
+        <is>
+          <t>Guido Reni</t>
+        </is>
+      </c>
+      <c r="M71" s="4" t="inlineStr">
+        <is>
+          <t>1635</t>
+        </is>
+      </c>
+      <c r="N71" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Archangel_Michael_(Guido_Reni)</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="3" t="n">
@@ -3738,6 +5123,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K72" s="4" t="inlineStr">
+        <is>
+          <t>The Delivery of the Keys</t>
+        </is>
+      </c>
+      <c r="L72" s="4" t="inlineStr">
+        <is>
+          <t>Pietro Perugino</t>
+        </is>
+      </c>
+      <c r="M72" s="4" t="inlineStr">
+        <is>
+          <t>1481–82</t>
+        </is>
+      </c>
+      <c r="N72" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/The_Delivery_of_the_Keys_(Perugino)</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="3" t="n">
@@ -3784,6 +5189,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K73" s="4" t="inlineStr">
+        <is>
+          <t>The Liberation of Saint Peter</t>
+        </is>
+      </c>
+      <c r="L73" s="4" t="inlineStr">
+        <is>
+          <t>Raphael</t>
+        </is>
+      </c>
+      <c r="M73" s="4" t="inlineStr">
+        <is>
+          <t>1514</t>
+        </is>
+      </c>
+      <c r="N73" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/The_Liberation_of_Saint_Peter</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="3" t="n">
@@ -3830,6 +5255,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K74" s="4" t="inlineStr">
+        <is>
+          <t>Christ and the Rich Young Ruler</t>
+        </is>
+      </c>
+      <c r="L74" s="4" t="inlineStr">
+        <is>
+          <t>Heinrich Hofmann</t>
+        </is>
+      </c>
+      <c r="M74" s="4" t="inlineStr">
+        <is>
+          <t>1889</t>
+        </is>
+      </c>
+      <c r="N74" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Christ_and_the_Rich_Young_Ruler</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="3" t="n">
@@ -3876,6 +5321,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K75" s="4" t="inlineStr">
+        <is>
+          <t>The Last Judgment (scales detail)</t>
+        </is>
+      </c>
+      <c r="L75" s="4" t="inlineStr">
+        <is>
+          <t>Rogier van der Weyden</t>
+        </is>
+      </c>
+      <c r="M75" s="4" t="inlineStr">
+        <is>
+          <t>c.1450</t>
+        </is>
+      </c>
+      <c r="N75" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/The_Last_Judgment_(van_der_Weyden)</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="3" t="n">
@@ -3922,6 +5387,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K76" s="4" t="inlineStr">
+        <is>
+          <t>The Builders (cornerstone)</t>
+        </is>
+      </c>
+      <c r="L76" s="4" t="inlineStr">
+        <is>
+          <t>Gustave Doré</t>
+        </is>
+      </c>
+      <c r="M76" s="4" t="inlineStr">
+        <is>
+          <t>1866</t>
+        </is>
+      </c>
+      <c r="N76" s="9" t="inlineStr">
+        <is>
+          <t>https://commons.wikimedia.org/wiki/File:Gustave_Doré_-_The_Holy_Bible_-_Plate_I.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="3" t="n">
@@ -3968,6 +5453,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K77" s="4" t="inlineStr">
+        <is>
+          <t>Girl with a Pearl Earring</t>
+        </is>
+      </c>
+      <c r="L77" s="4" t="inlineStr">
+        <is>
+          <t>Johannes Vermeer</t>
+        </is>
+      </c>
+      <c r="M77" s="4" t="inlineStr">
+        <is>
+          <t>c.1665</t>
+        </is>
+      </c>
+      <c r="N77" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Girl_with_a_Pearl_Earring</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="3" t="n">
@@ -4014,6 +5519,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K78" s="4" t="inlineStr">
+        <is>
+          <t>The Parable of the Hidden Treasure</t>
+        </is>
+      </c>
+      <c r="L78" s="4" t="inlineStr">
+        <is>
+          <t>Rembrandt</t>
+        </is>
+      </c>
+      <c r="M78" s="4" t="inlineStr">
+        <is>
+          <t>1630</t>
+        </is>
+      </c>
+      <c r="N78" s="9" t="inlineStr">
+        <is>
+          <t>https://commons.wikimedia.org/wiki/File:Rembrandt_-_The_Parable_of_the_Rich_Fool_-_WGA19262.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="3" t="n">
@@ -4058,6 +5583,26 @@
       <c r="J79" s="5" t="inlineStr">
         <is>
           <t>To Do</t>
+        </is>
+      </c>
+      <c r="K79" s="4" t="inlineStr">
+        <is>
+          <t>The Breakfast Table (still life)</t>
+        </is>
+      </c>
+      <c r="L79" s="4" t="inlineStr">
+        <is>
+          <t>Willem Claesz. Heda</t>
+        </is>
+      </c>
+      <c r="M79" s="4" t="inlineStr">
+        <is>
+          <t>1631</t>
+        </is>
+      </c>
+      <c r="N79" s="9" t="inlineStr">
+        <is>
+          <t>https://commons.wikimedia.org/wiki/File:Willem_Claesz_Heda_002.jpg</t>
         </is>
       </c>
     </row>
@@ -4076,6 +5621,10 @@
       <c r="H80" s="2" t="n"/>
       <c r="I80" s="2" t="n"/>
       <c r="J80" s="2" t="n"/>
+      <c r="K80" s="2" t="n"/>
+      <c r="L80" s="2" t="n"/>
+      <c r="M80" s="2" t="n"/>
+      <c r="N80" s="2" t="n"/>
     </row>
     <row r="81">
       <c r="A81" s="3" t="n">
@@ -4122,6 +5671,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K81" s="4" t="inlineStr">
+        <is>
+          <t>The Creation of Adam (hand of Adam)</t>
+        </is>
+      </c>
+      <c r="L81" s="4" t="inlineStr">
+        <is>
+          <t>Michelangelo</t>
+        </is>
+      </c>
+      <c r="M81" s="4" t="inlineStr">
+        <is>
+          <t>c.1512</t>
+        </is>
+      </c>
+      <c r="N81" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/The_Creation_of_Adam</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="3" t="n">
@@ -4168,6 +5737,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K82" s="4" t="inlineStr">
+        <is>
+          <t>Praying Hands</t>
+        </is>
+      </c>
+      <c r="L82" s="4" t="inlineStr">
+        <is>
+          <t>Albrecht Dürer</t>
+        </is>
+      </c>
+      <c r="M82" s="4" t="inlineStr">
+        <is>
+          <t>1508</t>
+        </is>
+      </c>
+      <c r="N82" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Praying_Hands_(Dürer)</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="3" t="n">
@@ -4214,6 +5803,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K83" s="4" t="inlineStr">
+        <is>
+          <t>Assumption of the Virgin (raised hands)</t>
+        </is>
+      </c>
+      <c r="L83" s="4" t="inlineStr">
+        <is>
+          <t>Titian</t>
+        </is>
+      </c>
+      <c r="M83" s="4" t="inlineStr">
+        <is>
+          <t>1516–18</t>
+        </is>
+      </c>
+      <c r="N83" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Assumption_of_the_Virgin_(Titian)</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="3" t="n">
@@ -4260,6 +5869,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K84" s="4" t="inlineStr">
+        <is>
+          <t>Old Woman Praying (Rembrandt's Mother)</t>
+        </is>
+      </c>
+      <c r="L84" s="4" t="inlineStr">
+        <is>
+          <t>Rembrandt van Rijn</t>
+        </is>
+      </c>
+      <c r="M84" s="4" t="inlineStr">
+        <is>
+          <t>1629–30</t>
+        </is>
+      </c>
+      <c r="N84" s="9" t="inlineStr">
+        <is>
+          <t>https://commons.wikimedia.org/wiki/File:Rembrandt_-_An_Old_Woman_Reading_-_WGA19175.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="3" t="n">
@@ -4306,6 +5935,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K85" s="4" t="inlineStr">
+        <is>
+          <t>St. Francis in Ecstasy</t>
+        </is>
+      </c>
+      <c r="L85" s="4" t="inlineStr">
+        <is>
+          <t>Caravaggio</t>
+        </is>
+      </c>
+      <c r="M85" s="4" t="inlineStr">
+        <is>
+          <t>c.1594</t>
+        </is>
+      </c>
+      <c r="N85" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Saint_Francis_of_Assisi_in_Ecstasy_(Caravaggio)</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="3" t="n">
@@ -4352,6 +6001,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K86" s="4" t="inlineStr">
+        <is>
+          <t>The Creation of Adam (both hands)</t>
+        </is>
+      </c>
+      <c r="L86" s="4" t="inlineStr">
+        <is>
+          <t>Michelangelo</t>
+        </is>
+      </c>
+      <c r="M86" s="4" t="inlineStr">
+        <is>
+          <t>c.1512</t>
+        </is>
+      </c>
+      <c r="N86" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/The_Creation_of_Adam</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="3" t="n">
@@ -4398,6 +6067,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K87" s="4" t="inlineStr">
+        <is>
+          <t>St. Jerome Writing</t>
+        </is>
+      </c>
+      <c r="L87" s="4" t="inlineStr">
+        <is>
+          <t>Caravaggio</t>
+        </is>
+      </c>
+      <c r="M87" s="4" t="inlineStr">
+        <is>
+          <t>1605–06</t>
+        </is>
+      </c>
+      <c r="N87" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Saint_Jerome_Writing_(Caravaggio)</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="3" t="n">
@@ -4444,6 +6133,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K88" s="4" t="inlineStr">
+        <is>
+          <t>The Sower</t>
+        </is>
+      </c>
+      <c r="L88" s="4" t="inlineStr">
+        <is>
+          <t>Jean-François Millet</t>
+        </is>
+      </c>
+      <c r="M88" s="4" t="inlineStr">
+        <is>
+          <t>1850</t>
+        </is>
+      </c>
+      <c r="N88" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/The_Sower_(Millet)</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="3" t="n">
@@ -4490,6 +6199,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K89" s="4" t="inlineStr">
+        <is>
+          <t>Christ Washing the Disciples' Feet</t>
+        </is>
+      </c>
+      <c r="L89" s="4" t="inlineStr">
+        <is>
+          <t>Ford Madox Brown</t>
+        </is>
+      </c>
+      <c r="M89" s="4" t="inlineStr">
+        <is>
+          <t>1852–56</t>
+        </is>
+      </c>
+      <c r="N89" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Jesus_Washing_Peter%27s_Feet_(Ford_Madox_Brown)</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="3" t="n">
@@ -4536,6 +6265,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K90" s="4" t="inlineStr">
+        <is>
+          <t>The Pilgrim</t>
+        </is>
+      </c>
+      <c r="L90" s="4" t="inlineStr">
+        <is>
+          <t>Eastman Johnson</t>
+        </is>
+      </c>
+      <c r="M90" s="4" t="inlineStr">
+        <is>
+          <t>c.1870</t>
+        </is>
+      </c>
+      <c r="N90" s="9" t="inlineStr">
+        <is>
+          <t>https://commons.wikimedia.org/wiki/File:Eastman_Johnson_-_The_Girl_I_Left_Behind_Me_-_Google_Art_Project.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="3" t="n">
@@ -4582,6 +6331,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K91" s="4" t="inlineStr">
+        <is>
+          <t>The Agony in the Garden</t>
+        </is>
+      </c>
+      <c r="L91" s="4" t="inlineStr">
+        <is>
+          <t>Andrea Mantegna</t>
+        </is>
+      </c>
+      <c r="M91" s="4" t="inlineStr">
+        <is>
+          <t>c.1458</t>
+        </is>
+      </c>
+      <c r="N91" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Agony_in_the_Garden_(Mantegna)</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="3" t="n">
@@ -4628,6 +6397,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K92" s="4" t="inlineStr">
+        <is>
+          <t>The Choice of Hercules</t>
+        </is>
+      </c>
+      <c r="L92" s="4" t="inlineStr">
+        <is>
+          <t>Annibale Carracci</t>
+        </is>
+      </c>
+      <c r="M92" s="4" t="inlineStr">
+        <is>
+          <t>1596</t>
+        </is>
+      </c>
+      <c r="N92" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/The_Choice_of_Heracles</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="3" t="n">
@@ -4674,6 +6463,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K93" s="4" t="inlineStr">
+        <is>
+          <t>Wanderer above the Sea of Fog</t>
+        </is>
+      </c>
+      <c r="L93" s="4" t="inlineStr">
+        <is>
+          <t>Caspar David Friedrich</t>
+        </is>
+      </c>
+      <c r="M93" s="4" t="inlineStr">
+        <is>
+          <t>1818</t>
+        </is>
+      </c>
+      <c r="N93" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Wanderer_above_the_Sea_of_Fog</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="3" t="n">
@@ -4720,6 +6529,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K94" s="4" t="inlineStr">
+        <is>
+          <t>Woman at a Window</t>
+        </is>
+      </c>
+      <c r="L94" s="4" t="inlineStr">
+        <is>
+          <t>Caspar David Friedrich</t>
+        </is>
+      </c>
+      <c r="M94" s="4" t="inlineStr">
+        <is>
+          <t>1822</t>
+        </is>
+      </c>
+      <c r="N94" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Woman_at_a_Window</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="3" t="n">
@@ -4766,6 +6595,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K95" s="4" t="inlineStr">
+        <is>
+          <t>The Good Shepherd (mosaic)</t>
+        </is>
+      </c>
+      <c r="L95" s="4" t="inlineStr">
+        <is>
+          <t>Mausoleum of Galla Placidia</t>
+        </is>
+      </c>
+      <c r="M95" s="4" t="inlineStr">
+        <is>
+          <t>c.425 CE</t>
+        </is>
+      </c>
+      <c r="N95" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Mausoleum_of_Galla_Placidia</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="3" t="n">
@@ -4812,6 +6661,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K96" s="4" t="inlineStr">
+        <is>
+          <t>The Walk to Emmaus</t>
+        </is>
+      </c>
+      <c r="L96" s="4" t="inlineStr">
+        <is>
+          <t>Robert Zünd</t>
+        </is>
+      </c>
+      <c r="M96" s="4" t="inlineStr">
+        <is>
+          <t>1877</t>
+        </is>
+      </c>
+      <c r="N96" s="9" t="inlineStr">
+        <is>
+          <t>https://commons.wikimedia.org/wiki/File:Robert_Zünd_-_The_Road_to_Emmaus_-_Google_Art_Project.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="3" t="n">
@@ -4858,6 +6727,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K97" s="4" t="inlineStr">
+        <is>
+          <t>The School of Athens</t>
+        </is>
+      </c>
+      <c r="L97" s="4" t="inlineStr">
+        <is>
+          <t>Raphael</t>
+        </is>
+      </c>
+      <c r="M97" s="4" t="inlineStr">
+        <is>
+          <t>1509–11</t>
+        </is>
+      </c>
+      <c r="N97" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/The_School_of_Athens</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="3" t="n">
@@ -4904,6 +6793,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K98" s="4" t="inlineStr">
+        <is>
+          <t>St. Jerome in His Study</t>
+        </is>
+      </c>
+      <c r="L98" s="4" t="inlineStr">
+        <is>
+          <t>Antonello da Messina</t>
+        </is>
+      </c>
+      <c r="M98" s="4" t="inlineStr">
+        <is>
+          <t>1475</t>
+        </is>
+      </c>
+      <c r="N98" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/St._Jerome_in_His_Study_(Antonello_da_Messina)</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="3" t="n">
@@ -4950,6 +6859,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K99" s="4" t="inlineStr">
+        <is>
+          <t>The Weeping Woman</t>
+        </is>
+      </c>
+      <c r="L99" s="4" t="inlineStr">
+        <is>
+          <t>Pablo Picasso</t>
+        </is>
+      </c>
+      <c r="M99" s="4" t="inlineStr">
+        <is>
+          <t>1937</t>
+        </is>
+      </c>
+      <c r="N99" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/The_Weeping_Woman</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="3" t="n">
@@ -4994,6 +6923,26 @@
       <c r="J100" s="5" t="inlineStr">
         <is>
           <t>To Do</t>
+        </is>
+      </c>
+      <c r="K100" s="4" t="inlineStr">
+        <is>
+          <t>Christ of Saint John of the Cross</t>
+        </is>
+      </c>
+      <c r="L100" s="4" t="inlineStr">
+        <is>
+          <t>Salvador Dalí</t>
+        </is>
+      </c>
+      <c r="M100" s="4" t="inlineStr">
+        <is>
+          <t>1951</t>
+        </is>
+      </c>
+      <c r="N100" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Christ_of_Saint_John_of_the_Cross</t>
         </is>
       </c>
     </row>
@@ -5012,6 +6961,10 @@
       <c r="H101" s="2" t="n"/>
       <c r="I101" s="2" t="n"/>
       <c r="J101" s="2" t="n"/>
+      <c r="K101" s="2" t="n"/>
+      <c r="L101" s="2" t="n"/>
+      <c r="M101" s="2" t="n"/>
+      <c r="N101" s="2" t="n"/>
     </row>
     <row r="102">
       <c r="A102" s="3" t="n">
@@ -5058,6 +7011,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K102" s="4" t="inlineStr">
+        <is>
+          <t>The Golden Gate (icon)</t>
+        </is>
+      </c>
+      <c r="L102" s="4" t="inlineStr">
+        <is>
+          <t>Byzantine mosaic</t>
+        </is>
+      </c>
+      <c r="M102" s="4" t="inlineStr">
+        <is>
+          <t>c.1310</t>
+        </is>
+      </c>
+      <c r="N102" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Chora_Church</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="3" t="n">
@@ -5104,6 +7077,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K103" s="4" t="inlineStr">
+        <is>
+          <t>The Broad and Narrow Way</t>
+        </is>
+      </c>
+      <c r="L103" s="4" t="inlineStr">
+        <is>
+          <t>Charlotte Reihlen</t>
+        </is>
+      </c>
+      <c r="M103" s="4" t="inlineStr">
+        <is>
+          <t>1866</t>
+        </is>
+      </c>
+      <c r="N103" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/The_Broad_and_the_Narrow_Way</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="3" t="n">
@@ -5150,6 +7143,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K104" s="4" t="inlineStr">
+        <is>
+          <t>The Broad and Narrow Way (full)</t>
+        </is>
+      </c>
+      <c r="L104" s="4" t="inlineStr">
+        <is>
+          <t>Charlotte Reihlen</t>
+        </is>
+      </c>
+      <c r="M104" s="4" t="inlineStr">
+        <is>
+          <t>1866</t>
+        </is>
+      </c>
+      <c r="N104" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/The_Broad_and_the_Narrow_Way</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="3" t="n">
@@ -5196,6 +7209,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K105" s="4" t="inlineStr">
+        <is>
+          <t>Interior of the Pantheon, Rome</t>
+        </is>
+      </c>
+      <c r="L105" s="4" t="inlineStr">
+        <is>
+          <t>Giovanni Paolo Panini</t>
+        </is>
+      </c>
+      <c r="M105" s="4" t="inlineStr">
+        <is>
+          <t>c.1734</t>
+        </is>
+      </c>
+      <c r="N105" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Interior_of_the_Pantheon,_Rome_(Panini)</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="3" t="n">
@@ -5242,6 +7275,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K106" s="4" t="inlineStr">
+        <is>
+          <t>The Destruction of the Temple of Jerusalem</t>
+        </is>
+      </c>
+      <c r="L106" s="4" t="inlineStr">
+        <is>
+          <t>Francesco Hayez</t>
+        </is>
+      </c>
+      <c r="M106" s="4" t="inlineStr">
+        <is>
+          <t>1867</t>
+        </is>
+      </c>
+      <c r="N106" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Destruction_of_the_Temple_of_Jerusalem_(Hayez)</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="3" t="n">
@@ -5288,6 +7341,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K107" s="4" t="inlineStr">
+        <is>
+          <t>Construction of the Temple at Jerusalem</t>
+        </is>
+      </c>
+      <c r="L107" s="4" t="inlineStr">
+        <is>
+          <t>Jean Fouquet</t>
+        </is>
+      </c>
+      <c r="M107" s="4" t="inlineStr">
+        <is>
+          <t>c.1470</t>
+        </is>
+      </c>
+      <c r="N107" s="9" t="inlineStr">
+        <is>
+          <t>https://commons.wikimedia.org/wiki/File:Fouquet_Building_of_a_Cathedral.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="3" t="n">
@@ -5334,6 +7407,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K108" s="4" t="inlineStr">
+        <is>
+          <t>The Last Supper</t>
+        </is>
+      </c>
+      <c r="L108" s="4" t="inlineStr">
+        <is>
+          <t>Leonardo da Vinci</t>
+        </is>
+      </c>
+      <c r="M108" s="4" t="inlineStr">
+        <is>
+          <t>1495–98</t>
+        </is>
+      </c>
+      <c r="N108" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/The_Last_Supper_(Leonardo)</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="3" t="n">
@@ -5380,6 +7473,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K109" s="4" t="inlineStr">
+        <is>
+          <t>The Garden of Earthly Delights (left panel)</t>
+        </is>
+      </c>
+      <c r="L109" s="4" t="inlineStr">
+        <is>
+          <t>Hieronymus Bosch</t>
+        </is>
+      </c>
+      <c r="M109" s="4" t="inlineStr">
+        <is>
+          <t>c.1500</t>
+        </is>
+      </c>
+      <c r="N109" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/The_Garden_of_Earthly_Delights</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="3" t="n">
@@ -5426,6 +7539,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K110" s="4" t="inlineStr">
+        <is>
+          <t>View of Jerusalem</t>
+        </is>
+      </c>
+      <c r="L110" s="4" t="inlineStr">
+        <is>
+          <t>David Roberts</t>
+        </is>
+      </c>
+      <c r="M110" s="4" t="inlineStr">
+        <is>
+          <t>1839</t>
+        </is>
+      </c>
+      <c r="N110" s="9" t="inlineStr">
+        <is>
+          <t>https://commons.wikimedia.org/wiki/File:David_Roberts-IsraelAndPalestine-1842-Jerusalem-V1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="3" t="n">
@@ -5472,6 +7605,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K111" s="4" t="inlineStr">
+        <is>
+          <t>Christ in Majesty (Pantocrator)</t>
+        </is>
+      </c>
+      <c r="L111" s="4" t="inlineStr">
+        <is>
+          <t>Cefalù Cathedral mosaic</t>
+        </is>
+      </c>
+      <c r="M111" s="4" t="inlineStr">
+        <is>
+          <t>c.1148</t>
+        </is>
+      </c>
+      <c r="N111" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Christ_Pantocrator_(Cefalù)</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="3" t="n">
@@ -5518,6 +7671,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K112" s="4" t="inlineStr">
+        <is>
+          <t>The Light of the World</t>
+        </is>
+      </c>
+      <c r="L112" s="4" t="inlineStr">
+        <is>
+          <t>William Holman Hunt</t>
+        </is>
+      </c>
+      <c r="M112" s="4" t="inlineStr">
+        <is>
+          <t>1853–54</t>
+        </is>
+      </c>
+      <c r="N112" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/The_Light_of_the_World_(painting)</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="3" t="n">
@@ -5564,6 +7737,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K113" s="4" t="inlineStr">
+        <is>
+          <t>Before the Door (Behold I Stand at the Door)</t>
+        </is>
+      </c>
+      <c r="L113" s="4" t="inlineStr">
+        <is>
+          <t>William Holman Hunt</t>
+        </is>
+      </c>
+      <c r="M113" s="4" t="inlineStr">
+        <is>
+          <t>1900</t>
+        </is>
+      </c>
+      <c r="N113" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/The_Light_of_the_World_(painting)</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="3" t="n">
@@ -5610,6 +7803,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K114" s="4" t="inlineStr">
+        <is>
+          <t>Jacob's Ladder</t>
+        </is>
+      </c>
+      <c r="L114" s="4" t="inlineStr">
+        <is>
+          <t>William Blake</t>
+        </is>
+      </c>
+      <c r="M114" s="4" t="inlineStr">
+        <is>
+          <t>c.1800</t>
+        </is>
+      </c>
+      <c r="N114" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/File:Blake_jacobsladder.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="3" t="n">
@@ -5656,6 +7869,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K115" s="4" t="inlineStr">
+        <is>
+          <t>Christ and the Woman of Samaria</t>
+        </is>
+      </c>
+      <c r="L115" s="4" t="inlineStr">
+        <is>
+          <t>Angelika Kauffman</t>
+        </is>
+      </c>
+      <c r="M115" s="4" t="inlineStr">
+        <is>
+          <t>1796</t>
+        </is>
+      </c>
+      <c r="N115" s="9" t="inlineStr">
+        <is>
+          <t>https://commons.wikimedia.org/wiki/File:Angelica_Kauffmann_-_Christ_and_the_Samaritan_Woman_at_the_Well_-_WGA12085.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="3" t="n">
@@ -5702,6 +7935,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K116" s="4" t="inlineStr">
+        <is>
+          <t>The Tower of Babel</t>
+        </is>
+      </c>
+      <c r="L116" s="4" t="inlineStr">
+        <is>
+          <t>Pieter Bruegel the Elder</t>
+        </is>
+      </c>
+      <c r="M116" s="4" t="inlineStr">
+        <is>
+          <t>1563</t>
+        </is>
+      </c>
+      <c r="N116" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/The_Tower_of_Babel_(Bruegel)</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="3" t="n">
@@ -5748,6 +8001,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K117" s="4" t="inlineStr">
+        <is>
+          <t>Autumn (The Spies with the Grapes of the Promised Land)</t>
+        </is>
+      </c>
+      <c r="L117" s="4" t="inlineStr">
+        <is>
+          <t>Nicolas Poussin</t>
+        </is>
+      </c>
+      <c r="M117" s="4" t="inlineStr">
+        <is>
+          <t>1660–64</t>
+        </is>
+      </c>
+      <c r="N117" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/The_Four_Seasons_(Poussin)</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="3" t="n">
@@ -5792,6 +8065,26 @@
       <c r="J118" s="5" t="inlineStr">
         <is>
           <t>To Do</t>
+        </is>
+      </c>
+      <c r="K118" s="4" t="inlineStr">
+        <is>
+          <t>St. Jerome in His Study</t>
+        </is>
+      </c>
+      <c r="L118" s="4" t="inlineStr">
+        <is>
+          <t>Albrecht Dürer</t>
+        </is>
+      </c>
+      <c r="M118" s="4" t="inlineStr">
+        <is>
+          <t>1514</t>
+        </is>
+      </c>
+      <c r="N118" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Saint_Jerome_in_His_Study_(Dürer)</t>
         </is>
       </c>
     </row>
@@ -5810,6 +8103,10 @@
       <c r="H119" s="2" t="n"/>
       <c r="I119" s="2" t="n"/>
       <c r="J119" s="2" t="n"/>
+      <c r="K119" s="2" t="n"/>
+      <c r="L119" s="2" t="n"/>
+      <c r="M119" s="2" t="n"/>
+      <c r="N119" s="2" t="n"/>
     </row>
     <row r="120">
       <c r="A120" s="3" t="n">
@@ -5856,6 +8153,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K120" s="4" t="inlineStr">
+        <is>
+          <t>Earth (from Quatre Éléments)</t>
+        </is>
+      </c>
+      <c r="L120" s="4" t="inlineStr">
+        <is>
+          <t>Arcimboldo</t>
+        </is>
+      </c>
+      <c r="M120" s="4" t="inlineStr">
+        <is>
+          <t>1566</t>
+        </is>
+      </c>
+      <c r="N120" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/File:Arcimboldo_Earth.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="3" t="n">
@@ -5902,6 +8219,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K121" s="4" t="inlineStr">
+        <is>
+          <t>Water Lilies (pond detail)</t>
+        </is>
+      </c>
+      <c r="L121" s="4" t="inlineStr">
+        <is>
+          <t>Claude Monet</t>
+        </is>
+      </c>
+      <c r="M121" s="4" t="inlineStr">
+        <is>
+          <t>1906</t>
+        </is>
+      </c>
+      <c r="N121" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Water_Lilies_(Monet_series)</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="3" t="n">
@@ -5948,6 +8285,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K122" s="4" t="inlineStr">
+        <is>
+          <t>Snow Storm: Hannibal Crossing the Alps</t>
+        </is>
+      </c>
+      <c r="L122" s="4" t="inlineStr">
+        <is>
+          <t>J.M.W. Turner</t>
+        </is>
+      </c>
+      <c r="M122" s="4" t="inlineStr">
+        <is>
+          <t>1812</t>
+        </is>
+      </c>
+      <c r="N122" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Snow_Storm:_Hannibal_and_his_Army_Crossing_the_Alps</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="3" t="n">
@@ -5994,6 +8351,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K123" s="4" t="inlineStr">
+        <is>
+          <t>Christ Pantocrator (gold leaf icon)</t>
+        </is>
+      </c>
+      <c r="L123" s="4" t="inlineStr">
+        <is>
+          <t>Hagia Sophia</t>
+        </is>
+      </c>
+      <c r="M123" s="4" t="inlineStr">
+        <is>
+          <t>c.1261</t>
+        </is>
+      </c>
+      <c r="N123" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/File:Hagia_Sophia_Christ_Pantocrator.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="3" t="n">
@@ -6040,6 +8417,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K124" s="4" t="inlineStr">
+        <is>
+          <t>St. Joseph the Carpenter (wood detail)</t>
+        </is>
+      </c>
+      <c r="L124" s="4" t="inlineStr">
+        <is>
+          <t>Georges de La Tour</t>
+        </is>
+      </c>
+      <c r="M124" s="4" t="inlineStr">
+        <is>
+          <t>c.1642</t>
+        </is>
+      </c>
+      <c r="N124" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Saint_Joseph_the_Carpenter_(de_La_Tour)</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="3" t="n">
@@ -6086,6 +8483,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K125" s="4" t="inlineStr">
+        <is>
+          <t>Book of Kells (manuscript page)</t>
+        </is>
+      </c>
+      <c r="L125" s="4" t="inlineStr">
+        <is>
+          <t>Irish monks</t>
+        </is>
+      </c>
+      <c r="M125" s="4" t="inlineStr">
+        <is>
+          <t>c.800</t>
+        </is>
+      </c>
+      <c r="N125" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Book_of_Kells</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="3" t="n">
@@ -6132,6 +8549,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K126" s="4" t="inlineStr">
+        <is>
+          <t>Jeremiah Lamenting the Destruction of Jerusalem</t>
+        </is>
+      </c>
+      <c r="L126" s="4" t="inlineStr">
+        <is>
+          <t>Rembrandt</t>
+        </is>
+      </c>
+      <c r="M126" s="4" t="inlineStr">
+        <is>
+          <t>1630</t>
+        </is>
+      </c>
+      <c r="N126" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Jeremiah_Lamenting_the_Destruction_of_Jerusalem</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="3" t="n">
@@ -6178,6 +8615,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K127" s="4" t="inlineStr">
+        <is>
+          <t>The Annunciation (textile detail)</t>
+        </is>
+      </c>
+      <c r="L127" s="4" t="inlineStr">
+        <is>
+          <t>Fra Angelico</t>
+        </is>
+      </c>
+      <c r="M127" s="4" t="inlineStr">
+        <is>
+          <t>c.1440</t>
+        </is>
+      </c>
+      <c r="N127" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Annunciation_(Fra_Angelico,_San_Marco)</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="3" t="n">
@@ -6224,6 +8681,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K128" s="4" t="inlineStr">
+        <is>
+          <t>Head of Christ (Crown of Thorns detail)</t>
+        </is>
+      </c>
+      <c r="L128" s="4" t="inlineStr">
+        <is>
+          <t>Correggio</t>
+        </is>
+      </c>
+      <c r="M128" s="4" t="inlineStr">
+        <is>
+          <t>c.1525</t>
+        </is>
+      </c>
+      <c r="N128" s="9" t="inlineStr">
+        <is>
+          <t>https://commons.wikimedia.org/wiki/File:Correggio_-_Head_of_Christ_-_Google_Art_Project.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="3" t="n">
@@ -6270,6 +8747,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K129" s="4" t="inlineStr">
+        <is>
+          <t>Seraph with Burning Coal (Isaiah 6)</t>
+        </is>
+      </c>
+      <c r="L129" s="4" t="inlineStr">
+        <is>
+          <t>Gustave Doré</t>
+        </is>
+      </c>
+      <c r="M129" s="4" t="inlineStr">
+        <is>
+          <t>1866</t>
+        </is>
+      </c>
+      <c r="N129" s="9" t="inlineStr">
+        <is>
+          <t>https://commons.wikimedia.org/wiki/File:Gustave_Doré_-_Isaiah's_Vision.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="3" t="n">
@@ -6316,6 +8813,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K130" s="4" t="inlineStr">
+        <is>
+          <t>Memento Mori / Vanitas (ashes)</t>
+        </is>
+      </c>
+      <c r="L130" s="4" t="inlineStr">
+        <is>
+          <t>Philippe de Champaigne</t>
+        </is>
+      </c>
+      <c r="M130" s="4" t="inlineStr">
+        <is>
+          <t>c.1671</t>
+        </is>
+      </c>
+      <c r="N130" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Vanitas_(Philippe_de_Champaigne)</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="3" t="n">
@@ -6362,6 +8879,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K131" s="4" t="inlineStr">
+        <is>
+          <t>Baptism of Christ (water detail)</t>
+        </is>
+      </c>
+      <c r="L131" s="4" t="inlineStr">
+        <is>
+          <t>Piero della Francesca</t>
+        </is>
+      </c>
+      <c r="M131" s="4" t="inlineStr">
+        <is>
+          <t>c.1448</t>
+        </is>
+      </c>
+      <c r="N131" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Baptism_of_Christ_(Piero_della_Francesca)</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="3" t="n">
@@ -6408,6 +8945,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K132" s="4" t="inlineStr">
+        <is>
+          <t>Hunters in the Snow (winter)</t>
+        </is>
+      </c>
+      <c r="L132" s="4" t="inlineStr">
+        <is>
+          <t>Pieter Bruegel the Elder</t>
+        </is>
+      </c>
+      <c r="M132" s="4" t="inlineStr">
+        <is>
+          <t>1565</t>
+        </is>
+      </c>
+      <c r="N132" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Hunters_in_the_Snow</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="3" t="n">
@@ -6454,6 +9011,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K133" s="4" t="inlineStr">
+        <is>
+          <t>Journey of the Magi</t>
+        </is>
+      </c>
+      <c r="L133" s="4" t="inlineStr">
+        <is>
+          <t>Sassetta</t>
+        </is>
+      </c>
+      <c r="M133" s="4" t="inlineStr">
+        <is>
+          <t>c.1435</t>
+        </is>
+      </c>
+      <c r="N133" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Journey_of_the_Magi_(Sassetta)</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="3" t="n">
@@ -6500,6 +9077,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K134" s="4" t="inlineStr">
+        <is>
+          <t>The Hand of God (Creation detail)</t>
+        </is>
+      </c>
+      <c r="L134" s="4" t="inlineStr">
+        <is>
+          <t>Michelangelo</t>
+        </is>
+      </c>
+      <c r="M134" s="4" t="inlineStr">
+        <is>
+          <t>c.1512</t>
+        </is>
+      </c>
+      <c r="N134" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/The_Creation_of_Adam</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="3" t="n">
@@ -6544,6 +9141,26 @@
       <c r="J135" s="5" t="inlineStr">
         <is>
           <t>To Do</t>
+        </is>
+      </c>
+      <c r="K135" s="4" t="inlineStr">
+        <is>
+          <t>Ravenna Mosaics (Emperor Justinian)</t>
+        </is>
+      </c>
+      <c r="L135" s="4" t="inlineStr">
+        <is>
+          <t>San Vitale, Ravenna</t>
+        </is>
+      </c>
+      <c r="M135" s="4" t="inlineStr">
+        <is>
+          <t>c.547 CE</t>
+        </is>
+      </c>
+      <c r="N135" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Basilica_of_San_Vitale</t>
         </is>
       </c>
     </row>
@@ -6562,6 +9179,10 @@
       <c r="H136" s="2" t="n"/>
       <c r="I136" s="2" t="n"/>
       <c r="J136" s="2" t="n"/>
+      <c r="K136" s="2" t="n"/>
+      <c r="L136" s="2" t="n"/>
+      <c r="M136" s="2" t="n"/>
+      <c r="N136" s="2" t="n"/>
     </row>
     <row r="137">
       <c r="A137" s="3" t="n">
@@ -6608,6 +9229,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K137" s="4" t="inlineStr">
+        <is>
+          <t>Almond Blossom</t>
+        </is>
+      </c>
+      <c r="L137" s="4" t="inlineStr">
+        <is>
+          <t>Vincent van Gogh</t>
+        </is>
+      </c>
+      <c r="M137" s="4" t="inlineStr">
+        <is>
+          <t>1890</t>
+        </is>
+      </c>
+      <c r="N137" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Almond_Blossoms</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="3" t="n">
@@ -6654,6 +9295,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K138" s="4" t="inlineStr">
+        <is>
+          <t>The Harvesters (summer)</t>
+        </is>
+      </c>
+      <c r="L138" s="4" t="inlineStr">
+        <is>
+          <t>Pieter Bruegel the Elder</t>
+        </is>
+      </c>
+      <c r="M138" s="4" t="inlineStr">
+        <is>
+          <t>1565</t>
+        </is>
+      </c>
+      <c r="N138" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/The_Harvesters_(Bruegel)</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="3" t="n">
@@ -6700,6 +9361,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K139" s="4" t="inlineStr">
+        <is>
+          <t>Autumn Landscape with Four Trees</t>
+        </is>
+      </c>
+      <c r="L139" s="4" t="inlineStr">
+        <is>
+          <t>Vincent van Gogh</t>
+        </is>
+      </c>
+      <c r="M139" s="4" t="inlineStr">
+        <is>
+          <t>1885</t>
+        </is>
+      </c>
+      <c r="N139" s="9" t="inlineStr">
+        <is>
+          <t>https://commons.wikimedia.org/wiki/File:Vincent_van_Gogh_-_Lane_with_Poplars_(1885).jpg</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="3" t="n">
@@ -6746,6 +9427,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K140" s="4" t="inlineStr">
+        <is>
+          <t>Winter Landscape with Skaters</t>
+        </is>
+      </c>
+      <c r="L140" s="4" t="inlineStr">
+        <is>
+          <t>Hendrick Avercamp</t>
+        </is>
+      </c>
+      <c r="M140" s="4" t="inlineStr">
+        <is>
+          <t>c.1608</t>
+        </is>
+      </c>
+      <c r="N140" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Winter_Landscape_with_Skaters_(Avercamp)</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="3" t="n">
@@ -6792,6 +9493,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K141" s="4" t="inlineStr">
+        <is>
+          <t>Vanitas with Hourglass</t>
+        </is>
+      </c>
+      <c r="L141" s="4" t="inlineStr">
+        <is>
+          <t>Antonio de Pereda</t>
+        </is>
+      </c>
+      <c r="M141" s="4" t="inlineStr">
+        <is>
+          <t>c.1640</t>
+        </is>
+      </c>
+      <c r="N141" s="9" t="inlineStr">
+        <is>
+          <t>https://commons.wikimedia.org/wiki/File:Antonio_de_Pereda_-_Allegory_of_Vanity_-_WGA17165.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="3" t="n">
@@ -6838,6 +9559,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K142" s="4" t="inlineStr">
+        <is>
+          <t>The Astronomer</t>
+        </is>
+      </c>
+      <c r="L142" s="4" t="inlineStr">
+        <is>
+          <t>Johannes Vermeer</t>
+        </is>
+      </c>
+      <c r="M142" s="4" t="inlineStr">
+        <is>
+          <t>1668</t>
+        </is>
+      </c>
+      <c r="N142" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/The_Astronomer_(Vermeer)</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="3" t="n">
@@ -6884,6 +9625,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K143" s="4" t="inlineStr">
+        <is>
+          <t>Haystack at Giverny (morning)</t>
+        </is>
+      </c>
+      <c r="L143" s="4" t="inlineStr">
+        <is>
+          <t>Claude Monet</t>
+        </is>
+      </c>
+      <c r="M143" s="4" t="inlineStr">
+        <is>
+          <t>1891</t>
+        </is>
+      </c>
+      <c r="N143" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Haystacks_(Monet_series)</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="3" t="n">
@@ -6928,6 +9689,26 @@
       <c r="J144" s="5" t="inlineStr">
         <is>
           <t>To Do</t>
+        </is>
+      </c>
+      <c r="K144" s="4" t="inlineStr">
+        <is>
+          <t>Two Men Contemplating the Moon</t>
+        </is>
+      </c>
+      <c r="L144" s="4" t="inlineStr">
+        <is>
+          <t>Caspar David Friedrich</t>
+        </is>
+      </c>
+      <c r="M144" s="4" t="inlineStr">
+        <is>
+          <t>c.1825</t>
+        </is>
+      </c>
+      <c r="N144" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Two_Men_Contemplating_the_Moon</t>
         </is>
       </c>
     </row>
@@ -6946,6 +9727,10 @@
       <c r="H145" s="2" t="n"/>
       <c r="I145" s="2" t="n"/>
       <c r="J145" s="2" t="n"/>
+      <c r="K145" s="2" t="n"/>
+      <c r="L145" s="2" t="n"/>
+      <c r="M145" s="2" t="n"/>
+      <c r="N145" s="2" t="n"/>
     </row>
     <row r="146">
       <c r="A146" s="3" t="n">
@@ -6992,6 +9777,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K146" s="4" t="inlineStr">
+        <is>
+          <t>The Pilgrimage to San Isidro</t>
+        </is>
+      </c>
+      <c r="L146" s="4" t="inlineStr">
+        <is>
+          <t>Francisco Goya</t>
+        </is>
+      </c>
+      <c r="M146" s="4" t="inlineStr">
+        <is>
+          <t>c.1821</t>
+        </is>
+      </c>
+      <c r="N146" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/A_Pilgrimage_to_San_Isidro</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="3" t="n">
@@ -7038,6 +9843,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K147" s="4" t="inlineStr">
+        <is>
+          <t>Avenue of Poplars in Autumn</t>
+        </is>
+      </c>
+      <c r="L147" s="4" t="inlineStr">
+        <is>
+          <t>Vincent van Gogh</t>
+        </is>
+      </c>
+      <c r="M147" s="4" t="inlineStr">
+        <is>
+          <t>1884</t>
+        </is>
+      </c>
+      <c r="N147" s="9" t="inlineStr">
+        <is>
+          <t>https://commons.wikimedia.org/wiki/File:Van_Gogh_-_Avenue_of_Poplars_in_Autumn_-_Google_Art_Project.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="3" t="n">
@@ -7084,6 +9909,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K148" s="4" t="inlineStr">
+        <is>
+          <t>Mountain of the Holy Cross</t>
+        </is>
+      </c>
+      <c r="L148" s="4" t="inlineStr">
+        <is>
+          <t>Thomas Moran</t>
+        </is>
+      </c>
+      <c r="M148" s="4" t="inlineStr">
+        <is>
+          <t>1875</t>
+        </is>
+      </c>
+      <c r="N148" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Mountain_of_the_Holy_Cross_(Thomas_Moran)</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="3" t="n">
@@ -7130,6 +9975,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K149" s="4" t="inlineStr">
+        <is>
+          <t>Valley of the Shadow of Death</t>
+        </is>
+      </c>
+      <c r="L149" s="4" t="inlineStr">
+        <is>
+          <t>George Inness</t>
+        </is>
+      </c>
+      <c r="M149" s="4" t="inlineStr">
+        <is>
+          <t>c.1867</t>
+        </is>
+      </c>
+      <c r="N149" s="9" t="inlineStr">
+        <is>
+          <t>https://commons.wikimedia.org/wiki/File:George_Inness_-_The_Valley_of_the_Shadow_of_Death_-_Google_Art_Project.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="3" t="n">
@@ -7176,6 +10041,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K150" s="4" t="inlineStr">
+        <is>
+          <t>Christ on the Sea of Galilee</t>
+        </is>
+      </c>
+      <c r="L150" s="4" t="inlineStr">
+        <is>
+          <t>Eugène Delacroix</t>
+        </is>
+      </c>
+      <c r="M150" s="4" t="inlineStr">
+        <is>
+          <t>1854</t>
+        </is>
+      </c>
+      <c r="N150" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Christ_on_the_Sea_of_Galilee</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="3" t="n">
@@ -7222,6 +10107,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K151" s="4" t="inlineStr">
+        <is>
+          <t>Still Life with Anchor (maritime)</t>
+        </is>
+      </c>
+      <c r="L151" s="4" t="inlineStr">
+        <is>
+          <t>Dutch School</t>
+        </is>
+      </c>
+      <c r="M151" s="4" t="inlineStr">
+        <is>
+          <t>c.1700</t>
+        </is>
+      </c>
+      <c r="N151" s="9" t="inlineStr">
+        <is>
+          <t>https://commons.wikimedia.org/wiki/File:Anchor_Wikimedia_Commons.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="3" t="n">
@@ -7268,6 +10173,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K152" s="4" t="inlineStr">
+        <is>
+          <t>The Gate of Calais</t>
+        </is>
+      </c>
+      <c r="L152" s="4" t="inlineStr">
+        <is>
+          <t>William Hogarth</t>
+        </is>
+      </c>
+      <c r="M152" s="4" t="inlineStr">
+        <is>
+          <t>1748</t>
+        </is>
+      </c>
+      <c r="N152" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/O_the_Roast_Beef_of_Old_England</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="3" t="n">
@@ -7314,6 +10239,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K153" s="4" t="inlineStr">
+        <is>
+          <t>Landscape with Footbridge</t>
+        </is>
+      </c>
+      <c r="L153" s="4" t="inlineStr">
+        <is>
+          <t>Albrecht Altdorfer</t>
+        </is>
+      </c>
+      <c r="M153" s="4" t="inlineStr">
+        <is>
+          <t>c.1518–20</t>
+        </is>
+      </c>
+      <c r="N153" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Landscape_with_Footbridge</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="3" t="n">
@@ -7360,6 +10305,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K154" s="4" t="inlineStr">
+        <is>
+          <t>The Geographer</t>
+        </is>
+      </c>
+      <c r="L154" s="4" t="inlineStr">
+        <is>
+          <t>Johannes Vermeer</t>
+        </is>
+      </c>
+      <c r="M154" s="4" t="inlineStr">
+        <is>
+          <t>c.1669</t>
+        </is>
+      </c>
+      <c r="N154" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/The_Geographer</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="3" t="n">
@@ -7406,6 +10371,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K155" s="4" t="inlineStr">
+        <is>
+          <t>The Shipwreck</t>
+        </is>
+      </c>
+      <c r="L155" s="4" t="inlineStr">
+        <is>
+          <t>J.M.W. Turner</t>
+        </is>
+      </c>
+      <c r="M155" s="4" t="inlineStr">
+        <is>
+          <t>1805</t>
+        </is>
+      </c>
+      <c r="N155" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/The_Shipwreck_(Turner)</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="3" t="n">
@@ -7450,6 +10435,26 @@
       <c r="J156" s="5" t="inlineStr">
         <is>
           <t>To Do</t>
+        </is>
+      </c>
+      <c r="K156" s="4" t="inlineStr">
+        <is>
+          <t>Slave Ship</t>
+        </is>
+      </c>
+      <c r="L156" s="4" t="inlineStr">
+        <is>
+          <t>J.M.W. Turner</t>
+        </is>
+      </c>
+      <c r="M156" s="4" t="inlineStr">
+        <is>
+          <t>1840</t>
+        </is>
+      </c>
+      <c r="N156" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/The_Slave_Ship</t>
         </is>
       </c>
     </row>
@@ -7468,6 +10473,10 @@
       <c r="H157" s="2" t="n"/>
       <c r="I157" s="2" t="n"/>
       <c r="J157" s="2" t="n"/>
+      <c r="K157" s="2" t="n"/>
+      <c r="L157" s="2" t="n"/>
+      <c r="M157" s="2" t="n"/>
+      <c r="N157" s="2" t="n"/>
     </row>
     <row r="158">
       <c r="A158" s="3" t="n">
@@ -7514,6 +10523,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K158" s="4" t="inlineStr">
+        <is>
+          <t>The Creation of Light</t>
+        </is>
+      </c>
+      <c r="L158" s="4" t="inlineStr">
+        <is>
+          <t>Gustave Doré</t>
+        </is>
+      </c>
+      <c r="M158" s="4" t="inlineStr">
+        <is>
+          <t>1866</t>
+        </is>
+      </c>
+      <c r="N158" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/File:Création_de_la_Lumière.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="3" t="n">
@@ -7560,6 +10589,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K159" s="4" t="inlineStr">
+        <is>
+          <t>The Garden of Eden</t>
+        </is>
+      </c>
+      <c r="L159" s="4" t="inlineStr">
+        <is>
+          <t>Thomas Cole</t>
+        </is>
+      </c>
+      <c r="M159" s="4" t="inlineStr">
+        <is>
+          <t>1828</t>
+        </is>
+      </c>
+      <c r="N159" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/The_Garden_of_Eden_(Thomas_Cole)</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="3" t="n">
@@ -7606,6 +10655,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K160" s="4" t="inlineStr">
+        <is>
+          <t>The Fall of Man</t>
+        </is>
+      </c>
+      <c r="L160" s="4" t="inlineStr">
+        <is>
+          <t>Peter Paul Rubens</t>
+        </is>
+      </c>
+      <c r="M160" s="4" t="inlineStr">
+        <is>
+          <t>c.1629</t>
+        </is>
+      </c>
+      <c r="N160" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/The_Fall_of_Man_(Rubens)</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="3" t="n">
@@ -7652,6 +10721,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K161" s="4" t="inlineStr">
+        <is>
+          <t>The Deluge</t>
+        </is>
+      </c>
+      <c r="L161" s="4" t="inlineStr">
+        <is>
+          <t>John Martin</t>
+        </is>
+      </c>
+      <c r="M161" s="4" t="inlineStr">
+        <is>
+          <t>1834</t>
+        </is>
+      </c>
+      <c r="N161" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/The_Deluge_(Martin)</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="3" t="n">
@@ -7698,6 +10787,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K162" s="4" t="inlineStr">
+        <is>
+          <t>Abraham and the Stars (God's Promise)</t>
+        </is>
+      </c>
+      <c r="L162" s="4" t="inlineStr">
+        <is>
+          <t>Gustave Doré</t>
+        </is>
+      </c>
+      <c r="M162" s="4" t="inlineStr">
+        <is>
+          <t>1866</t>
+        </is>
+      </c>
+      <c r="N162" s="9" t="inlineStr">
+        <is>
+          <t>https://commons.wikimedia.org/wiki/File:Gustave_Doré_-_Abraham_Journeying_into_the_Land_of_Canaan.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="3" t="n">
@@ -7744,6 +10853,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K163" s="4" t="inlineStr">
+        <is>
+          <t>Jacob Wrestling with the Angel</t>
+        </is>
+      </c>
+      <c r="L163" s="4" t="inlineStr">
+        <is>
+          <t>Eugène Delacroix</t>
+        </is>
+      </c>
+      <c r="M163" s="4" t="inlineStr">
+        <is>
+          <t>1861</t>
+        </is>
+      </c>
+      <c r="N163" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Jacob_Wrestling_with_the_Angel_(Delacroix)</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="3" t="n">
@@ -7790,6 +10919,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K164" s="4" t="inlineStr">
+        <is>
+          <t>The Crossing of the Red Sea</t>
+        </is>
+      </c>
+      <c r="L164" s="4" t="inlineStr">
+        <is>
+          <t>Nicolas Poussin</t>
+        </is>
+      </c>
+      <c r="M164" s="4" t="inlineStr">
+        <is>
+          <t>1634</t>
+        </is>
+      </c>
+      <c r="N164" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/The_Crossing_of_the_Red_Sea_(Poussin)</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="3" t="n">
@@ -7836,6 +10985,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K165" s="4" t="inlineStr">
+        <is>
+          <t>Moses Receiving the Tablets of the Law</t>
+        </is>
+      </c>
+      <c r="L165" s="4" t="inlineStr">
+        <is>
+          <t>Marc Chagall</t>
+        </is>
+      </c>
+      <c r="M165" s="4" t="inlineStr">
+        <is>
+          <t>1960–66</t>
+        </is>
+      </c>
+      <c r="N165" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Chagall_Biblical_Message</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="3" t="n">
@@ -7882,6 +11051,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K166" s="4" t="inlineStr">
+        <is>
+          <t>The Pillar of Fire</t>
+        </is>
+      </c>
+      <c r="L166" s="4" t="inlineStr">
+        <is>
+          <t>Gustave Doré</t>
+        </is>
+      </c>
+      <c r="M166" s="4" t="inlineStr">
+        <is>
+          <t>1866</t>
+        </is>
+      </c>
+      <c r="N166" s="9" t="inlineStr">
+        <is>
+          <t>https://commons.wikimedia.org/wiki/File:095.The_Plague_of_Darkness.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="3" t="n">
@@ -7928,6 +11117,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K167" s="4" t="inlineStr">
+        <is>
+          <t>David and Goliath</t>
+        </is>
+      </c>
+      <c r="L167" s="4" t="inlineStr">
+        <is>
+          <t>Caravaggio</t>
+        </is>
+      </c>
+      <c r="M167" s="4" t="inlineStr">
+        <is>
+          <t>c.1599</t>
+        </is>
+      </c>
+      <c r="N167" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/David_and_Goliath_(Caravaggio)</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="3" t="n">
@@ -7974,6 +11183,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K168" s="4" t="inlineStr">
+        <is>
+          <t>King David Playing the Harp</t>
+        </is>
+      </c>
+      <c r="L168" s="4" t="inlineStr">
+        <is>
+          <t>Gerard van Honthorst</t>
+        </is>
+      </c>
+      <c r="M168" s="4" t="inlineStr">
+        <is>
+          <t>1622</t>
+        </is>
+      </c>
+      <c r="N168" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/King_David_Playing_the_Harp_(Honthorst)</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="3" t="n">
@@ -8020,6 +11249,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K169" s="4" t="inlineStr">
+        <is>
+          <t>Elijah's Sacrifice</t>
+        </is>
+      </c>
+      <c r="L169" s="4" t="inlineStr">
+        <is>
+          <t>Gustave Doré</t>
+        </is>
+      </c>
+      <c r="M169" s="4" t="inlineStr">
+        <is>
+          <t>1866</t>
+        </is>
+      </c>
+      <c r="N169" s="9" t="inlineStr">
+        <is>
+          <t>https://commons.wikimedia.org/wiki/File:114.Elijah's_Sacrifice_at_Mount_Carmel.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="3" t="n">
@@ -8066,6 +11315,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K170" s="4" t="inlineStr">
+        <is>
+          <t>Elijah and the Still Small Voice</t>
+        </is>
+      </c>
+      <c r="L170" s="4" t="inlineStr">
+        <is>
+          <t>Gustave Doré</t>
+        </is>
+      </c>
+      <c r="M170" s="4" t="inlineStr">
+        <is>
+          <t>1866</t>
+        </is>
+      </c>
+      <c r="N170" s="9" t="inlineStr">
+        <is>
+          <t>https://commons.wikimedia.org/wiki/File:115.Elijah_Nourished_by_an_Angel.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="3" t="n">
@@ -8112,6 +11381,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K171" s="4" t="inlineStr">
+        <is>
+          <t>Daniel in the Lions' Den</t>
+        </is>
+      </c>
+      <c r="L171" s="4" t="inlineStr">
+        <is>
+          <t>Peter Paul Rubens</t>
+        </is>
+      </c>
+      <c r="M171" s="4" t="inlineStr">
+        <is>
+          <t>c.1615</t>
+        </is>
+      </c>
+      <c r="N171" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Daniel_in_the_Lions%27_Den_(Rubens)</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="3" t="n">
@@ -8158,6 +11447,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K172" s="4" t="inlineStr">
+        <is>
+          <t>Jonah and the Whale</t>
+        </is>
+      </c>
+      <c r="L172" s="4" t="inlineStr">
+        <is>
+          <t>Pieter Lastman</t>
+        </is>
+      </c>
+      <c r="M172" s="4" t="inlineStr">
+        <is>
+          <t>1621</t>
+        </is>
+      </c>
+      <c r="N172" s="9" t="inlineStr">
+        <is>
+          <t>https://commons.wikimedia.org/wiki/File:Pieter_Lastman_-_Jonah_and_the_Whale_-_Google_Art_Project.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="3" t="n">
@@ -8204,6 +11513,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K173" s="4" t="inlineStr">
+        <is>
+          <t>Isaiah's Vision</t>
+        </is>
+      </c>
+      <c r="L173" s="4" t="inlineStr">
+        <is>
+          <t>Gustave Doré</t>
+        </is>
+      </c>
+      <c r="M173" s="4" t="inlineStr">
+        <is>
+          <t>1866</t>
+        </is>
+      </c>
+      <c r="N173" s="9" t="inlineStr">
+        <is>
+          <t>https://commons.wikimedia.org/wiki/File:Gustave_Doré_-_Isaiah's_Vision.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="3" t="n">
@@ -8250,6 +11579,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K174" s="4" t="inlineStr">
+        <is>
+          <t>The Vision of the Valley of Dry Bones</t>
+        </is>
+      </c>
+      <c r="L174" s="4" t="inlineStr">
+        <is>
+          <t>Gustave Doré</t>
+        </is>
+      </c>
+      <c r="M174" s="4" t="inlineStr">
+        <is>
+          <t>1866</t>
+        </is>
+      </c>
+      <c r="N174" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Valley_of_Dry_Bones</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="3" t="n">
@@ -8296,6 +11645,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K175" s="4" t="inlineStr">
+        <is>
+          <t>Adoration of the Shepherds</t>
+        </is>
+      </c>
+      <c r="L175" s="4" t="inlineStr">
+        <is>
+          <t>Gerrit van Honthorst</t>
+        </is>
+      </c>
+      <c r="M175" s="4" t="inlineStr">
+        <is>
+          <t>1622</t>
+        </is>
+      </c>
+      <c r="N175" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Adoration_of_the_Shepherds_(Honthorst)</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="3" t="n">
@@ -8342,6 +11711,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K176" s="4" t="inlineStr">
+        <is>
+          <t>Adoration of the Magi</t>
+        </is>
+      </c>
+      <c r="L176" s="4" t="inlineStr">
+        <is>
+          <t>Gentile da Fabriano</t>
+        </is>
+      </c>
+      <c r="M176" s="4" t="inlineStr">
+        <is>
+          <t>1423</t>
+        </is>
+      </c>
+      <c r="N176" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Adoration_of_the_Magi_(Gentile_da_Fabriano)</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="3" t="n">
@@ -8388,6 +11777,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K177" s="4" t="inlineStr">
+        <is>
+          <t>The Baptism of Christ</t>
+        </is>
+      </c>
+      <c r="L177" s="4" t="inlineStr">
+        <is>
+          <t>Andrea del Verrocchio &amp; Leonardo</t>
+        </is>
+      </c>
+      <c r="M177" s="4" t="inlineStr">
+        <is>
+          <t>1472–75</t>
+        </is>
+      </c>
+      <c r="N177" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Baptism_of_Christ_(Verrocchio_and_Leonardo)</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="3" t="n">
@@ -8434,6 +11843,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K178" s="4" t="inlineStr">
+        <is>
+          <t>Christ in the Wilderness</t>
+        </is>
+      </c>
+      <c r="L178" s="4" t="inlineStr">
+        <is>
+          <t>Ivan Kramskoi</t>
+        </is>
+      </c>
+      <c r="M178" s="4" t="inlineStr">
+        <is>
+          <t>1872</t>
+        </is>
+      </c>
+      <c r="N178" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Christ_in_the_Wilderness</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="3" t="n">
@@ -8480,6 +11909,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K179" s="4" t="inlineStr">
+        <is>
+          <t>The Sermon on the Mount</t>
+        </is>
+      </c>
+      <c r="L179" s="4" t="inlineStr">
+        <is>
+          <t>Carl Bloch</t>
+        </is>
+      </c>
+      <c r="M179" s="4" t="inlineStr">
+        <is>
+          <t>1877</t>
+        </is>
+      </c>
+      <c r="N179" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Carl_Bloch</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="3" t="n">
@@ -8526,6 +11975,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K180" s="4" t="inlineStr">
+        <is>
+          <t>Christ in the Storm on the Sea of Galilee</t>
+        </is>
+      </c>
+      <c r="L180" s="4" t="inlineStr">
+        <is>
+          <t>Rembrandt</t>
+        </is>
+      </c>
+      <c r="M180" s="4" t="inlineStr">
+        <is>
+          <t>1633</t>
+        </is>
+      </c>
+      <c r="N180" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/The_Storm_on_the_Sea_of_Galilee</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="3" t="n">
@@ -8572,6 +12041,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K181" s="4" t="inlineStr">
+        <is>
+          <t>Christ Walking on the Water</t>
+        </is>
+      </c>
+      <c r="L181" s="4" t="inlineStr">
+        <is>
+          <t>Ivan Aivazovsky</t>
+        </is>
+      </c>
+      <c r="M181" s="4" t="inlineStr">
+        <is>
+          <t>1888</t>
+        </is>
+      </c>
+      <c r="N181" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Walking_on_water</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="3" t="n">
@@ -8618,6 +12107,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K182" s="4" t="inlineStr">
+        <is>
+          <t>The Miracle of the Loaves and Fishes</t>
+        </is>
+      </c>
+      <c r="L182" s="4" t="inlineStr">
+        <is>
+          <t>Giovanni Lanfranco</t>
+        </is>
+      </c>
+      <c r="M182" s="4" t="inlineStr">
+        <is>
+          <t>1620</t>
+        </is>
+      </c>
+      <c r="N182" s="9" t="inlineStr">
+        <is>
+          <t>https://commons.wikimedia.org/wiki/File:Giovanni_Lanfranco_-_Miracle_of_the_Bread_and_Fish_-_WGA12455.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="3" t="n">
@@ -8664,6 +12173,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K183" s="4" t="inlineStr">
+        <is>
+          <t>Christ Blessing the Little Children</t>
+        </is>
+      </c>
+      <c r="L183" s="4" t="inlineStr">
+        <is>
+          <t>Lucas Cranach the Elder</t>
+        </is>
+      </c>
+      <c r="M183" s="4" t="inlineStr">
+        <is>
+          <t>1538</t>
+        </is>
+      </c>
+      <c r="N183" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Christ_Blessing_the_Children</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="3" t="n">
@@ -8710,6 +12239,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K184" s="4" t="inlineStr">
+        <is>
+          <t>The Transfiguration</t>
+        </is>
+      </c>
+      <c r="L184" s="4" t="inlineStr">
+        <is>
+          <t>Raphael</t>
+        </is>
+      </c>
+      <c r="M184" s="4" t="inlineStr">
+        <is>
+          <t>1516–20</t>
+        </is>
+      </c>
+      <c r="N184" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Transfiguration_(Raphael)</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="3" t="n">
@@ -8756,6 +12305,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K185" s="4" t="inlineStr">
+        <is>
+          <t>Flevit super illam (He wept over it)</t>
+        </is>
+      </c>
+      <c r="L185" s="4" t="inlineStr">
+        <is>
+          <t>Enrique Simonet</t>
+        </is>
+      </c>
+      <c r="M185" s="4" t="inlineStr">
+        <is>
+          <t>1892</t>
+        </is>
+      </c>
+      <c r="N185" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Flevit_super_illam</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="3" t="n">
@@ -8802,6 +12371,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K186" s="4" t="inlineStr">
+        <is>
+          <t>The Last Supper</t>
+        </is>
+      </c>
+      <c r="L186" s="4" t="inlineStr">
+        <is>
+          <t>Leonardo da Vinci</t>
+        </is>
+      </c>
+      <c r="M186" s="4" t="inlineStr">
+        <is>
+          <t>1495–98</t>
+        </is>
+      </c>
+      <c r="N186" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/The_Last_Supper_(Leonardo)</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="3" t="n">
@@ -8848,6 +12437,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K187" s="4" t="inlineStr">
+        <is>
+          <t>Christ in the Garden of Gethsemane</t>
+        </is>
+      </c>
+      <c r="L187" s="4" t="inlineStr">
+        <is>
+          <t>Heinrich Hofmann</t>
+        </is>
+      </c>
+      <c r="M187" s="4" t="inlineStr">
+        <is>
+          <t>1890</t>
+        </is>
+      </c>
+      <c r="N187" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Christ_in_Gethsemane_(Hofmann)</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="3" t="n">
@@ -8894,6 +12503,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K188" s="4" t="inlineStr">
+        <is>
+          <t>Christ Crucified</t>
+        </is>
+      </c>
+      <c r="L188" s="4" t="inlineStr">
+        <is>
+          <t>Diego Velázquez</t>
+        </is>
+      </c>
+      <c r="M188" s="4" t="inlineStr">
+        <is>
+          <t>1632</t>
+        </is>
+      </c>
+      <c r="N188" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Christ_Crucified_(Velázquez)</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="3" t="n">
@@ -8940,6 +12569,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K189" s="4" t="inlineStr">
+        <is>
+          <t>Crucifixion (hands detail)</t>
+        </is>
+      </c>
+      <c r="L189" s="4" t="inlineStr">
+        <is>
+          <t>Matthias Grünewald</t>
+        </is>
+      </c>
+      <c r="M189" s="4" t="inlineStr">
+        <is>
+          <t>1512–16</t>
+        </is>
+      </c>
+      <c r="N189" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Isenheim_Altarpiece</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="3" t="n">
@@ -8986,6 +12635,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K190" s="4" t="inlineStr">
+        <is>
+          <t>The Resurrection</t>
+        </is>
+      </c>
+      <c r="L190" s="4" t="inlineStr">
+        <is>
+          <t>Carl Bloch</t>
+        </is>
+      </c>
+      <c r="M190" s="4" t="inlineStr">
+        <is>
+          <t>1881</t>
+        </is>
+      </c>
+      <c r="N190" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Carl_Bloch</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="3" t="n">
@@ -9032,6 +12701,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K191" s="4" t="inlineStr">
+        <is>
+          <t>The Road to Emmaus</t>
+        </is>
+      </c>
+      <c r="L191" s="4" t="inlineStr">
+        <is>
+          <t>Robert Zünd</t>
+        </is>
+      </c>
+      <c r="M191" s="4" t="inlineStr">
+        <is>
+          <t>1877</t>
+        </is>
+      </c>
+      <c r="N191" s="9" t="inlineStr">
+        <is>
+          <t>https://commons.wikimedia.org/wiki/File:Robert_Zünd_-_The_Road_to_Emmaus_-_Google_Art_Project.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="3" t="n">
@@ -9078,6 +12767,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K192" s="4" t="inlineStr">
+        <is>
+          <t>Pentecost</t>
+        </is>
+      </c>
+      <c r="L192" s="4" t="inlineStr">
+        <is>
+          <t>El Greco</t>
+        </is>
+      </c>
+      <c r="M192" s="4" t="inlineStr">
+        <is>
+          <t>c.1600</t>
+        </is>
+      </c>
+      <c r="N192" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Pentecost_(El_Greco)</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="3" t="n">
@@ -9124,6 +12833,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K193" s="4" t="inlineStr">
+        <is>
+          <t>The Conversion of Saint Paul</t>
+        </is>
+      </c>
+      <c r="L193" s="4" t="inlineStr">
+        <is>
+          <t>Caravaggio</t>
+        </is>
+      </c>
+      <c r="M193" s="4" t="inlineStr">
+        <is>
+          <t>1601</t>
+        </is>
+      </c>
+      <c r="N193" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Conversion_on_the_Way_to_Damascus_(Caravaggio)</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="3" t="n">
@@ -9168,6 +12897,26 @@
       <c r="J194" s="5" t="inlineStr">
         <is>
           <t>To Do</t>
+        </is>
+      </c>
+      <c r="K194" s="4" t="inlineStr">
+        <is>
+          <t>The New Jerusalem (Apocalypse)</t>
+        </is>
+      </c>
+      <c r="L194" s="4" t="inlineStr">
+        <is>
+          <t>Gustave Doré</t>
+        </is>
+      </c>
+      <c r="M194" s="4" t="inlineStr">
+        <is>
+          <t>1866</t>
+        </is>
+      </c>
+      <c r="N194" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/File:Gustave_Doré_-_The_New_Jerusalem.jpg</t>
         </is>
       </c>
     </row>
@@ -9186,6 +12935,10 @@
       <c r="H195" s="2" t="n"/>
       <c r="I195" s="2" t="n"/>
       <c r="J195" s="2" t="n"/>
+      <c r="K195" s="2" t="n"/>
+      <c r="L195" s="2" t="n"/>
+      <c r="M195" s="2" t="n"/>
+      <c r="N195" s="2" t="n"/>
     </row>
     <row r="196">
       <c r="A196" s="3" t="n">
@@ -9232,6 +12985,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K196" s="4" t="inlineStr">
+        <is>
+          <t>The Weeping Madonna</t>
+        </is>
+      </c>
+      <c r="L196" s="4" t="inlineStr">
+        <is>
+          <t>Dieric Bouts</t>
+        </is>
+      </c>
+      <c r="M196" s="4" t="inlineStr">
+        <is>
+          <t>c.1460</t>
+        </is>
+      </c>
+      <c r="N196" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Mater_Dolorosa_(Bouts)</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="3" t="n">
@@ -9278,6 +13051,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K197" s="4" t="inlineStr">
+        <is>
+          <t>The Return of the Prodigal Son</t>
+        </is>
+      </c>
+      <c r="L197" s="4" t="inlineStr">
+        <is>
+          <t>Rembrandt</t>
+        </is>
+      </c>
+      <c r="M197" s="4" t="inlineStr">
+        <is>
+          <t>c.1668</t>
+        </is>
+      </c>
+      <c r="N197" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/The_Return_of_the_Prodigal_Son_(Rembrandt)</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="3" t="n">
@@ -9324,6 +13117,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K198" s="4" t="inlineStr">
+        <is>
+          <t>The Rest on the Flight into Egypt</t>
+        </is>
+      </c>
+      <c r="L198" s="4" t="inlineStr">
+        <is>
+          <t>Caravaggio</t>
+        </is>
+      </c>
+      <c r="M198" s="4" t="inlineStr">
+        <is>
+          <t>c.1597</t>
+        </is>
+      </c>
+      <c r="N198" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Rest_on_the_Flight_into_Egypt_(Caravaggio)</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="3" t="n">
@@ -9370,6 +13183,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K199" s="4" t="inlineStr">
+        <is>
+          <t>The Laughing Fool</t>
+        </is>
+      </c>
+      <c r="L199" s="4" t="inlineStr">
+        <is>
+          <t>Jacob Cornelisz. van Oostsanen</t>
+        </is>
+      </c>
+      <c r="M199" s="4" t="inlineStr">
+        <is>
+          <t>c.1500</t>
+        </is>
+      </c>
+      <c r="N199" s="9" t="inlineStr">
+        <is>
+          <t>https://commons.wikimedia.org/wiki/File:Laughing_Fool.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="3" t="n">
@@ -9416,6 +13249,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K200" s="4" t="inlineStr">
+        <is>
+          <t>St. Teresa in Ecstasy</t>
+        </is>
+      </c>
+      <c r="L200" s="4" t="inlineStr">
+        <is>
+          <t>Gian Lorenzo Bernini</t>
+        </is>
+      </c>
+      <c r="M200" s="4" t="inlineStr">
+        <is>
+          <t>1647–52</t>
+        </is>
+      </c>
+      <c r="N200" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Ecstasy_of_Saint_Teresa</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="3" t="n">
@@ -9462,6 +13315,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K201" s="4" t="inlineStr">
+        <is>
+          <t>The Immaculate Conception</t>
+        </is>
+      </c>
+      <c r="L201" s="4" t="inlineStr">
+        <is>
+          <t>Bartolomé Esteban Murillo</t>
+        </is>
+      </c>
+      <c r="M201" s="4" t="inlineStr">
+        <is>
+          <t>c.1678</t>
+        </is>
+      </c>
+      <c r="N201" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/The_Immaculate_Conception_of_Los_Venerables</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="3" t="n">
@@ -9508,6 +13381,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K202" s="4" t="inlineStr">
+        <is>
+          <t>The Incredulity of Saint Thomas (wounds)</t>
+        </is>
+      </c>
+      <c r="L202" s="4" t="inlineStr">
+        <is>
+          <t>Caravaggio</t>
+        </is>
+      </c>
+      <c r="M202" s="4" t="inlineStr">
+        <is>
+          <t>c.1602</t>
+        </is>
+      </c>
+      <c r="N202" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/The_Incredulity_of_Saint_Thomas_(Caravaggio)</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="3" t="n">
@@ -9552,6 +13445,26 @@
       <c r="J203" s="5" t="inlineStr">
         <is>
           <t>To Do</t>
+        </is>
+      </c>
+      <c r="K203" s="4" t="inlineStr">
+        <is>
+          <t>The Penitent Magdalene</t>
+        </is>
+      </c>
+      <c r="L203" s="4" t="inlineStr">
+        <is>
+          <t>Georges de La Tour</t>
+        </is>
+      </c>
+      <c r="M203" s="4" t="inlineStr">
+        <is>
+          <t>c.1640</t>
+        </is>
+      </c>
+      <c r="N203" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Magdalene_with_the_Smoking_Flame</t>
         </is>
       </c>
     </row>
@@ -9570,6 +13483,10 @@
       <c r="H204" s="2" t="n"/>
       <c r="I204" s="2" t="n"/>
       <c r="J204" s="2" t="n"/>
+      <c r="K204" s="2" t="n"/>
+      <c r="L204" s="2" t="n"/>
+      <c r="M204" s="2" t="n"/>
+      <c r="N204" s="2" t="n"/>
     </row>
     <row r="205">
       <c r="A205" s="3" t="n">
@@ -9616,6 +13533,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K205" s="4" t="inlineStr">
+        <is>
+          <t>The Supper at Emmaus</t>
+        </is>
+      </c>
+      <c r="L205" s="4" t="inlineStr">
+        <is>
+          <t>Caravaggio</t>
+        </is>
+      </c>
+      <c r="M205" s="4" t="inlineStr">
+        <is>
+          <t>1601</t>
+        </is>
+      </c>
+      <c r="N205" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Supper_at_Emmaus_(Caravaggio,_London)</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="3" t="n">
@@ -9662,6 +13599,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K206" s="4" t="inlineStr">
+        <is>
+          <t>Pentecost (gathering of disciples)</t>
+        </is>
+      </c>
+      <c r="L206" s="4" t="inlineStr">
+        <is>
+          <t>El Greco</t>
+        </is>
+      </c>
+      <c r="M206" s="4" t="inlineStr">
+        <is>
+          <t>c.1600</t>
+        </is>
+      </c>
+      <c r="N206" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Pentecost_(El_Greco)</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="3" t="n">
@@ -9708,6 +13665,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K207" s="4" t="inlineStr">
+        <is>
+          <t>Baptism of Christ</t>
+        </is>
+      </c>
+      <c r="L207" s="4" t="inlineStr">
+        <is>
+          <t>Piero della Francesca</t>
+        </is>
+      </c>
+      <c r="M207" s="4" t="inlineStr">
+        <is>
+          <t>c.1448</t>
+        </is>
+      </c>
+      <c r="N207" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Baptism_of_Christ_(Piero_della_Francesca)</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="3" t="n">
@@ -9754,6 +13731,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K208" s="4" t="inlineStr">
+        <is>
+          <t>Cantoria (singers)</t>
+        </is>
+      </c>
+      <c r="L208" s="4" t="inlineStr">
+        <is>
+          <t>Luca della Robbia</t>
+        </is>
+      </c>
+      <c r="M208" s="4" t="inlineStr">
+        <is>
+          <t>1431–38</t>
+        </is>
+      </c>
+      <c r="N208" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Cantoria_(Luca_della_Robbia)</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="3" t="n">
@@ -9800,6 +13797,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K209" s="4" t="inlineStr">
+        <is>
+          <t>Christ and the Disciples at Emmaus</t>
+        </is>
+      </c>
+      <c r="L209" s="4" t="inlineStr">
+        <is>
+          <t>Rembrandt</t>
+        </is>
+      </c>
+      <c r="M209" s="4" t="inlineStr">
+        <is>
+          <t>1648</t>
+        </is>
+      </c>
+      <c r="N209" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Supper_at_Emmaus_(Rembrandt,_Louvre)</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="3" t="n">
@@ -9846,6 +13863,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K210" s="4" t="inlineStr">
+        <is>
+          <t>The Wedding at Cana</t>
+        </is>
+      </c>
+      <c r="L210" s="4" t="inlineStr">
+        <is>
+          <t>Paolo Veronese</t>
+        </is>
+      </c>
+      <c r="M210" s="4" t="inlineStr">
+        <is>
+          <t>1563</t>
+        </is>
+      </c>
+      <c r="N210" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/The_Wedding_at_Cana</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="3" t="n">
@@ -9892,6 +13929,26 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K211" s="4" t="inlineStr">
+        <is>
+          <t>Supper at Emmaus (candlelit)</t>
+        </is>
+      </c>
+      <c r="L211" s="4" t="inlineStr">
+        <is>
+          <t>Rembrandt</t>
+        </is>
+      </c>
+      <c r="M211" s="4" t="inlineStr">
+        <is>
+          <t>1629</t>
+        </is>
+      </c>
+      <c r="N211" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Supper_at_Emmaus_(Rembrandt)</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="3" t="n">
@@ -9938,8 +13995,230 @@
           <t>To Do</t>
         </is>
       </c>
+      <c r="K212" s="4" t="inlineStr">
+        <is>
+          <t>Confirmation (Seven Sacraments)</t>
+        </is>
+      </c>
+      <c r="L212" s="4" t="inlineStr">
+        <is>
+          <t>Nicolas Poussin</t>
+        </is>
+      </c>
+      <c r="M212" s="4" t="inlineStr">
+        <is>
+          <t>1640s</t>
+        </is>
+      </c>
+      <c r="N212" s="9" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Seven_Sacraments_(Poussin)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N3" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N4" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N5" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N6" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N7" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N8" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N9" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N10" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N11" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N12" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N13" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N14" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N15" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N16" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N17" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N18" r:id="rId16"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N19" r:id="rId17"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N20" r:id="rId18"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N21" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N22" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N23" r:id="rId21"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N24" r:id="rId22"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N25" r:id="rId23"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N26" r:id="rId24"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N27" r:id="rId25"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N28" r:id="rId26"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N30" r:id="rId27"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N31" r:id="rId28"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N32" r:id="rId29"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N33" r:id="rId30"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N34" r:id="rId31"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N35" r:id="rId32"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N36" r:id="rId33"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N37" r:id="rId34"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N38" r:id="rId35"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N39" r:id="rId36"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N40" r:id="rId37"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N41" r:id="rId38"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N43" r:id="rId39"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N44" r:id="rId40"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N45" r:id="rId41"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N46" r:id="rId42"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N47" r:id="rId43"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N48" r:id="rId44"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N49" r:id="rId45"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N50" r:id="rId46"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N51" r:id="rId47"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N52" r:id="rId48"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N53" r:id="rId49"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N54" r:id="rId50"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N55" r:id="rId51"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N56" r:id="rId52"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N57" r:id="rId53"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N58" r:id="rId54"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N59" r:id="rId55"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N60" r:id="rId56"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N61" r:id="rId57"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N62" r:id="rId58"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N63" r:id="rId59"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N64" r:id="rId60"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N65" r:id="rId61"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N66" r:id="rId62"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N67" r:id="rId63"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N68" r:id="rId64"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N69" r:id="rId65"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N70" r:id="rId66"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N71" r:id="rId67"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N72" r:id="rId68"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N73" r:id="rId69"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N74" r:id="rId70"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N75" r:id="rId71"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N76" r:id="rId72"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N77" r:id="rId73"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N78" r:id="rId74"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N79" r:id="rId75"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N81" r:id="rId76"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N82" r:id="rId77"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N83" r:id="rId78"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N84" r:id="rId79"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N85" r:id="rId80"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N86" r:id="rId81"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N87" r:id="rId82"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N88" r:id="rId83"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N89" r:id="rId84"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N90" r:id="rId85"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N91" r:id="rId86"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N92" r:id="rId87"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N93" r:id="rId88"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N94" r:id="rId89"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N95" r:id="rId90"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N96" r:id="rId91"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N97" r:id="rId92"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N98" r:id="rId93"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N99" r:id="rId94"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N100" r:id="rId95"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N102" r:id="rId96"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N103" r:id="rId97"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N104" r:id="rId98"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N105" r:id="rId99"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N106" r:id="rId100"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N107" r:id="rId101"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N108" r:id="rId102"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N109" r:id="rId103"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N110" r:id="rId104"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N111" r:id="rId105"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N112" r:id="rId106"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N113" r:id="rId107"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N114" r:id="rId108"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N115" r:id="rId109"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N116" r:id="rId110"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N117" r:id="rId111"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N118" r:id="rId112"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N120" r:id="rId113"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N121" r:id="rId114"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N122" r:id="rId115"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N123" r:id="rId116"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N124" r:id="rId117"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N125" r:id="rId118"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N126" r:id="rId119"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N127" r:id="rId120"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N128" r:id="rId121"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N129" r:id="rId122"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N130" r:id="rId123"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N131" r:id="rId124"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N132" r:id="rId125"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N133" r:id="rId126"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N134" r:id="rId127"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N135" r:id="rId128"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N137" r:id="rId129"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N138" r:id="rId130"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N139" r:id="rId131"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N140" r:id="rId132"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N141" r:id="rId133"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N142" r:id="rId134"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N143" r:id="rId135"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N144" r:id="rId136"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N146" r:id="rId137"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N147" r:id="rId138"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N148" r:id="rId139"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N149" r:id="rId140"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N150" r:id="rId141"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N151" r:id="rId142"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N152" r:id="rId143"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N153" r:id="rId144"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N154" r:id="rId145"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N155" r:id="rId146"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N156" r:id="rId147"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N158" r:id="rId148"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N159" r:id="rId149"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N160" r:id="rId150"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N161" r:id="rId151"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N162" r:id="rId152"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N163" r:id="rId153"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N164" r:id="rId154"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N165" r:id="rId155"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N166" r:id="rId156"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N167" r:id="rId157"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N168" r:id="rId158"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N169" r:id="rId159"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N170" r:id="rId160"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N171" r:id="rId161"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N172" r:id="rId162"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N173" r:id="rId163"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N174" r:id="rId164"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N175" r:id="rId165"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N176" r:id="rId166"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N177" r:id="rId167"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N178" r:id="rId168"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N179" r:id="rId169"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N180" r:id="rId170"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N181" r:id="rId171"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N182" r:id="rId172"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N183" r:id="rId173"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N184" r:id="rId174"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N185" r:id="rId175"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N186" r:id="rId176"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N187" r:id="rId177"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N188" r:id="rId178"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N189" r:id="rId179"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N190" r:id="rId180"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N191" r:id="rId181"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N192" r:id="rId182"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N193" r:id="rId183"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N194" r:id="rId184"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N196" r:id="rId185"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N197" r:id="rId186"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N198" r:id="rId187"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N199" r:id="rId188"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N200" r:id="rId189"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N201" r:id="rId190"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N202" r:id="rId191"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N203" r:id="rId192"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N205" r:id="rId193"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N206" r:id="rId194"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N207" r:id="rId195"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N208" r:id="rId196"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N209" r:id="rId197"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N210" r:id="rId198"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N211" r:id="rId199"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N212" r:id="rId200"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
